--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -671,7 +671,11 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C10" s="17" t="inlineStr"/>
+      <c r="C10" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -972,7 +976,11 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C37" s="17" t="inlineStr"/>
+      <c r="C37" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="11" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -25,6 +25,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12"/>
     </font>
@@ -38,10 +42,6 @@
       <sz val="14"/>
     </font>
     <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <sz val="12"/>
     </font>
     <font>
@@ -52,7 +52,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -66,11 +66,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEB972A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ffb14a"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eb972a"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -127,6 +137,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -153,58 +196,109 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,456 +642,738 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="4.88671875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="3" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="13" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>Minggu Ke-15</t>
         </is>
       </c>
+      <c r="D1" s="15" t="n"/>
+      <c r="E1" s="15" t="n"/>
+      <c r="F1" s="15" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="14" t="n"/>
-      <c r="B2" s="14" t="n"/>
-      <c r="C2" s="15" t="inlineStr">
+      <c r="A2" s="16" t="n"/>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="17" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="D2" s="17" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
+      <c r="E2" s="17" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
+      <c r="F2" s="17" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="16" t="n"/>
-      <c r="B3" s="16" t="n"/>
-      <c r="C3" s="17" t="inlineStr">
+      <c r="A3" s="18" t="n"/>
+      <c r="B3" s="18" t="n"/>
+      <c r="C3" s="19" t="inlineStr">
         <is>
           <t>MAT15</t>
         </is>
       </c>
+      <c r="D3" s="19" t="inlineStr">
+        <is>
+          <t>BINDO8</t>
+        </is>
+      </c>
+      <c r="E3" s="19" t="inlineStr">
+        <is>
+          <t>BINDO9</t>
+        </is>
+      </c>
+      <c r="F3" s="19" t="inlineStr">
+        <is>
+          <t>BASDA5</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C4" s="17" t="inlineStr"/>
+      <c r="C4" s="19" t="inlineStr"/>
+      <c r="D4" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C5" s="17" t="inlineStr"/>
+      <c r="C5" s="19" t="inlineStr"/>
+      <c r="D5" s="20" t="inlineStr"/>
+      <c r="E5" s="19" t="inlineStr"/>
+      <c r="F5" s="20" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C6" s="17" t="inlineStr"/>
+      <c r="C6" s="19" t="inlineStr"/>
+      <c r="D6" s="20" t="inlineStr"/>
+      <c r="E6" s="19" t="inlineStr"/>
+      <c r="F6" s="20" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr"/>
+      <c r="C7" s="19" t="inlineStr"/>
+      <c r="D7" s="20" t="inlineStr"/>
+      <c r="E7" s="19" t="inlineStr"/>
+      <c r="F7" s="20" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C8" s="17" t="inlineStr"/>
+      <c r="C8" s="19" t="inlineStr"/>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C9" s="17" t="inlineStr"/>
+      <c r="C9" s="19" t="inlineStr"/>
+      <c r="D9" s="20" t="inlineStr"/>
+      <c r="E9" s="19" t="inlineStr"/>
+      <c r="F9" s="20" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C10" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C10" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D10" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C11" s="17" t="inlineStr"/>
+      <c r="C11" s="19" t="inlineStr"/>
+      <c r="D11" s="20" t="inlineStr"/>
+      <c r="E11" s="19" t="inlineStr"/>
+      <c r="F11" s="20" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C12" s="17" t="inlineStr"/>
+      <c r="C12" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D12" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E12" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C13" s="17" t="inlineStr"/>
+      <c r="C13" s="19" t="inlineStr"/>
+      <c r="D13" s="20" t="inlineStr"/>
+      <c r="E13" s="19" t="inlineStr"/>
+      <c r="F13" s="20" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C14" s="17" t="inlineStr"/>
+      <c r="C14" s="19" t="inlineStr"/>
+      <c r="D14" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="inlineStr">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C15" s="17" t="inlineStr"/>
+      <c r="C15" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D15" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="inlineStr">
+      <c r="B16" s="14" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C16" s="17" t="inlineStr"/>
+      <c r="C16" s="19" t="inlineStr"/>
+      <c r="D16" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E16" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F16" s="20" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="inlineStr">
+      <c r="B17" s="14" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C17" s="17" t="inlineStr"/>
+      <c r="C17" s="19" t="inlineStr"/>
+      <c r="D17" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F17" s="20" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="inlineStr">
+      <c r="B18" s="14" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C18" s="17" t="inlineStr"/>
+      <c r="C18" s="19" t="inlineStr"/>
+      <c r="D18" s="20" t="inlineStr"/>
+      <c r="E18" s="19" t="inlineStr"/>
+      <c r="F18" s="20" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="12" t="inlineStr">
+      <c r="B19" s="14" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C19" s="17" t="inlineStr"/>
+      <c r="C19" s="19" t="inlineStr"/>
+      <c r="D19" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="20" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="12" t="inlineStr">
+      <c r="B20" s="14" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C20" s="17" t="inlineStr"/>
+      <c r="C20" s="19" t="inlineStr"/>
+      <c r="D20" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E20" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F20" s="20" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="inlineStr">
+      <c r="B21" s="14" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C21" s="17" t="inlineStr"/>
+      <c r="C21" s="19" t="inlineStr"/>
+      <c r="D21" s="20" t="inlineStr"/>
+      <c r="E21" s="19" t="inlineStr"/>
+      <c r="F21" s="20" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="inlineStr">
+      <c r="B22" s="14" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C22" s="17" t="inlineStr"/>
+      <c r="C22" s="19" t="inlineStr"/>
+      <c r="D22" s="20" t="inlineStr"/>
+      <c r="E22" s="19" t="inlineStr"/>
+      <c r="F22" s="20" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="11" t="n">
+      <c r="A23" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="12" t="inlineStr">
+      <c r="B23" s="14" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C23" s="17" t="inlineStr"/>
+      <c r="C23" s="19" t="inlineStr"/>
+      <c r="D23" s="20" t="inlineStr"/>
+      <c r="E23" s="19" t="inlineStr"/>
+      <c r="F23" s="20" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="11" t="n">
+      <c r="A24" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="12" t="inlineStr">
+      <c r="B24" s="14" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C24" s="17" t="inlineStr"/>
+      <c r="C24" s="19" t="inlineStr"/>
+      <c r="D24" s="20" t="inlineStr"/>
+      <c r="E24" s="19" t="inlineStr"/>
+      <c r="F24" s="20" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="11" t="n">
+      <c r="A25" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="inlineStr">
+      <c r="B25" s="14" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C25" s="17" t="inlineStr"/>
+      <c r="C25" s="19" t="inlineStr"/>
+      <c r="D25" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="20" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="11" t="n">
+      <c r="A26" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="12" t="inlineStr">
+      <c r="B26" s="14" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C26" s="18" t="inlineStr">
+      <c r="C26" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F26" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="11" t="n">
+      <c r="A27" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="12" t="inlineStr">
+      <c r="B27" s="14" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C27" s="17" t="inlineStr"/>
+      <c r="C27" s="19" t="inlineStr"/>
+      <c r="D27" s="20" t="inlineStr"/>
+      <c r="E27" s="19" t="inlineStr"/>
+      <c r="F27" s="20" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="11" t="n">
+      <c r="A28" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="12" t="inlineStr">
+      <c r="B28" s="14" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C28" s="17" t="inlineStr"/>
+      <c r="C28" s="19" t="inlineStr"/>
+      <c r="D28" s="20" t="inlineStr"/>
+      <c r="E28" s="19" t="inlineStr"/>
+      <c r="F28" s="20" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="11" t="n">
+      <c r="A29" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="12" t="inlineStr">
+      <c r="B29" s="14" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C29" s="17" t="inlineStr"/>
+      <c r="C29" s="19" t="inlineStr"/>
+      <c r="D29" s="20" t="inlineStr"/>
+      <c r="E29" s="19" t="inlineStr"/>
+      <c r="F29" s="20" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="11" t="n">
+      <c r="A30" s="13" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="12" t="inlineStr">
+      <c r="B30" s="14" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C30" s="17" t="inlineStr"/>
+      <c r="C30" s="19" t="inlineStr"/>
+      <c r="D30" s="20" t="inlineStr"/>
+      <c r="E30" s="19" t="inlineStr"/>
+      <c r="F30" s="20" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="11" t="n">
+      <c r="A31" s="13" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="12" t="inlineStr">
+      <c r="B31" s="14" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C31" s="17" t="inlineStr"/>
+      <c r="C31" s="19" t="inlineStr"/>
+      <c r="D31" s="20" t="inlineStr"/>
+      <c r="E31" s="19" t="inlineStr"/>
+      <c r="F31" s="20" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="11" t="n">
+      <c r="A32" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="12" t="inlineStr">
+      <c r="B32" s="14" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C32" s="17" t="inlineStr"/>
+      <c r="C32" s="19" t="inlineStr"/>
+      <c r="D32" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E32" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F32" s="20" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="11" t="n">
+      <c r="A33" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="12" t="inlineStr">
+      <c r="B33" s="14" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C33" s="17" t="inlineStr"/>
+      <c r="C33" s="19" t="inlineStr"/>
+      <c r="D33" s="20" t="inlineStr"/>
+      <c r="E33" s="19" t="inlineStr"/>
+      <c r="F33" s="20" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="11" t="n">
+      <c r="A34" s="13" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="inlineStr">
+      <c r="B34" s="14" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C34" s="17" t="inlineStr"/>
+      <c r="C34" s="19" t="inlineStr"/>
+      <c r="D34" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F34" s="20" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="11" t="n">
+      <c r="A35" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="12" t="inlineStr">
+      <c r="B35" s="14" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C35" s="17" t="inlineStr"/>
+      <c r="C35" s="19" t="inlineStr"/>
+      <c r="D35" s="20" t="inlineStr"/>
+      <c r="E35" s="19" t="inlineStr"/>
+      <c r="F35" s="20" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="11" t="n">
+      <c r="A36" s="13" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="12" t="inlineStr">
+      <c r="B36" s="14" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C36" s="17" t="inlineStr"/>
+      <c r="C36" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="20" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="11" t="n">
+      <c r="A37" s="13" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="12" t="inlineStr">
+      <c r="B37" s="14" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C37" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C37" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D37" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E37" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="20" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
-      <c r="A38" s="11" t="n">
+      <c r="A38" s="13" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="12" t="inlineStr">
+      <c r="B38" s="14" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C38" s="17" t="inlineStr"/>
+      <c r="C38" s="19" t="inlineStr"/>
+      <c r="D38" s="20" t="inlineStr"/>
+      <c r="E38" s="19" t="inlineStr"/>
+      <c r="F38" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
@@ -674,6 +674,7 @@
       <c r="D1" s="15" t="n"/>
       <c r="E1" s="15" t="n"/>
       <c r="F1" s="15" t="n"/>
+      <c r="G1" s="15" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="16" t="n"/>
@@ -698,6 +699,11 @@
           <t>Tugas 4</t>
         </is>
       </c>
+      <c r="G2" s="17" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="18" t="n"/>
@@ -722,6 +728,11 @@
           <t>BASDA5</t>
         </is>
       </c>
+      <c r="G3" s="19" t="inlineStr">
+        <is>
+          <t>PAI12</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="13" t="n">
@@ -744,6 +755,11 @@
         </is>
       </c>
       <c r="F4" s="20" t="inlineStr"/>
+      <c r="G4" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="13" t="n">
@@ -755,9 +771,18 @@
         </is>
       </c>
       <c r="C5" s="19" t="inlineStr"/>
-      <c r="D5" s="20" t="inlineStr"/>
-      <c r="E5" s="19" t="inlineStr"/>
+      <c r="D5" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F5" s="20" t="inlineStr"/>
+      <c r="G5" s="19" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="13" t="n">
@@ -769,9 +794,22 @@
         </is>
       </c>
       <c r="C6" s="19" t="inlineStr"/>
-      <c r="D6" s="20" t="inlineStr"/>
-      <c r="E6" s="19" t="inlineStr"/>
+      <c r="D6" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E6" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F6" s="20" t="inlineStr"/>
+      <c r="G6" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="13" t="n">
@@ -786,6 +824,7 @@
       <c r="D7" s="20" t="inlineStr"/>
       <c r="E7" s="19" t="inlineStr"/>
       <c r="F7" s="20" t="inlineStr"/>
+      <c r="G7" s="19" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="13" t="n">
@@ -808,6 +847,11 @@
         </is>
       </c>
       <c r="F8" s="20" t="inlineStr"/>
+      <c r="G8" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="13" t="n">
@@ -822,6 +866,7 @@
       <c r="D9" s="20" t="inlineStr"/>
       <c r="E9" s="19" t="inlineStr"/>
       <c r="F9" s="20" t="inlineStr"/>
+      <c r="G9" s="19" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="13" t="n">
@@ -847,7 +892,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F10" s="20" t="inlineStr"/>
+      <c r="F10" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G10" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="13" t="n">
@@ -862,6 +916,7 @@
       <c r="D11" s="20" t="inlineStr"/>
       <c r="E11" s="19" t="inlineStr"/>
       <c r="F11" s="20" t="inlineStr"/>
+      <c r="G11" s="19" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="13" t="n">
@@ -888,6 +943,11 @@
         </is>
       </c>
       <c r="F12" s="20" t="inlineStr"/>
+      <c r="G12" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="13" t="n">
@@ -902,6 +962,7 @@
       <c r="D13" s="20" t="inlineStr"/>
       <c r="E13" s="19" t="inlineStr"/>
       <c r="F13" s="20" t="inlineStr"/>
+      <c r="G13" s="19" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="13" t="n">
@@ -924,6 +985,11 @@
         </is>
       </c>
       <c r="F14" s="20" t="inlineStr"/>
+      <c r="G14" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="13" t="n">
@@ -950,6 +1016,11 @@
         </is>
       </c>
       <c r="F15" s="20" t="inlineStr"/>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="13" t="n">
@@ -972,6 +1043,7 @@
         </is>
       </c>
       <c r="F16" s="20" t="inlineStr"/>
+      <c r="G16" s="19" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="13" t="n">
@@ -994,6 +1066,7 @@
         </is>
       </c>
       <c r="F17" s="20" t="inlineStr"/>
+      <c r="G17" s="19" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="13" t="n">
@@ -1008,6 +1081,7 @@
       <c r="D18" s="20" t="inlineStr"/>
       <c r="E18" s="19" t="inlineStr"/>
       <c r="F18" s="20" t="inlineStr"/>
+      <c r="G18" s="19" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="13" t="n">
@@ -1030,6 +1104,11 @@
         </is>
       </c>
       <c r="F19" s="20" t="inlineStr"/>
+      <c r="G19" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="13" t="n">
@@ -1052,6 +1131,7 @@
         </is>
       </c>
       <c r="F20" s="20" t="inlineStr"/>
+      <c r="G20" s="19" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="13" t="n">
@@ -1066,6 +1146,11 @@
       <c r="D21" s="20" t="inlineStr"/>
       <c r="E21" s="19" t="inlineStr"/>
       <c r="F21" s="20" t="inlineStr"/>
+      <c r="G21" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="13" t="n">
@@ -1077,9 +1162,22 @@
         </is>
       </c>
       <c r="C22" s="19" t="inlineStr"/>
-      <c r="D22" s="20" t="inlineStr"/>
-      <c r="E22" s="19" t="inlineStr"/>
+      <c r="D22" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E22" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F22" s="20" t="inlineStr"/>
+      <c r="G22" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="13" t="n">
@@ -1094,6 +1192,7 @@
       <c r="D23" s="20" t="inlineStr"/>
       <c r="E23" s="19" t="inlineStr"/>
       <c r="F23" s="20" t="inlineStr"/>
+      <c r="G23" s="19" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="13" t="n">
@@ -1108,6 +1207,7 @@
       <c r="D24" s="20" t="inlineStr"/>
       <c r="E24" s="19" t="inlineStr"/>
       <c r="F24" s="20" t="inlineStr"/>
+      <c r="G24" s="19" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="13" t="n">
@@ -1130,6 +1230,11 @@
         </is>
       </c>
       <c r="F25" s="20" t="inlineStr"/>
+      <c r="G25" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="13" t="n">
@@ -1160,6 +1265,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G26" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="13" t="n">
@@ -1171,9 +1281,22 @@
         </is>
       </c>
       <c r="C27" s="19" t="inlineStr"/>
-      <c r="D27" s="20" t="inlineStr"/>
-      <c r="E27" s="19" t="inlineStr"/>
+      <c r="D27" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E27" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F27" s="20" t="inlineStr"/>
+      <c r="G27" s="19" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="13" t="n">
@@ -1185,9 +1308,18 @@
         </is>
       </c>
       <c r="C28" s="19" t="inlineStr"/>
-      <c r="D28" s="20" t="inlineStr"/>
-      <c r="E28" s="19" t="inlineStr"/>
+      <c r="D28" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E28" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F28" s="20" t="inlineStr"/>
+      <c r="G28" s="19" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="13" t="n">
@@ -1202,6 +1334,11 @@
       <c r="D29" s="20" t="inlineStr"/>
       <c r="E29" s="19" t="inlineStr"/>
       <c r="F29" s="20" t="inlineStr"/>
+      <c r="G29" s="19" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="13" t="n">
@@ -1216,6 +1353,11 @@
       <c r="D30" s="20" t="inlineStr"/>
       <c r="E30" s="19" t="inlineStr"/>
       <c r="F30" s="20" t="inlineStr"/>
+      <c r="G30" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="13" t="n">
@@ -1230,6 +1372,7 @@
       <c r="D31" s="20" t="inlineStr"/>
       <c r="E31" s="19" t="inlineStr"/>
       <c r="F31" s="20" t="inlineStr"/>
+      <c r="G31" s="19" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="13" t="n">
@@ -1240,7 +1383,11 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C32" s="19" t="inlineStr"/>
+      <c r="C32" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1251,7 +1398,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F32" s="20" t="inlineStr"/>
+      <c r="F32" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G32" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="13" t="n">
@@ -1266,6 +1422,7 @@
       <c r="D33" s="20" t="inlineStr"/>
       <c r="E33" s="19" t="inlineStr"/>
       <c r="F33" s="20" t="inlineStr"/>
+      <c r="G33" s="19" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="13" t="n">
@@ -1288,6 +1445,11 @@
         </is>
       </c>
       <c r="F34" s="20" t="inlineStr"/>
+      <c r="G34" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="13" t="n">
@@ -1302,6 +1464,7 @@
       <c r="D35" s="20" t="inlineStr"/>
       <c r="E35" s="19" t="inlineStr"/>
       <c r="F35" s="20" t="inlineStr"/>
+      <c r="G35" s="19" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="13" t="n">
@@ -1327,7 +1490,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F36" s="20" t="inlineStr"/>
+      <c r="F36" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G36" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="13" t="n">
@@ -1353,7 +1525,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F37" s="20" t="inlineStr"/>
+      <c r="F37" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G37" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="13" t="n">
@@ -1368,12 +1549,17 @@
       <c r="D38" s="20" t="inlineStr"/>
       <c r="E38" s="19" t="inlineStr"/>
       <c r="F38" s="20" t="inlineStr"/>
+      <c r="G38" s="19" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -782,7 +782,11 @@
         </is>
       </c>
       <c r="F5" s="20" t="inlineStr"/>
-      <c r="G5" s="19" t="inlineStr"/>
+      <c r="G5" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="13" t="n">
@@ -824,7 +828,11 @@
       <c r="D7" s="20" t="inlineStr"/>
       <c r="E7" s="19" t="inlineStr"/>
       <c r="F7" s="20" t="inlineStr"/>
-      <c r="G7" s="19" t="inlineStr"/>
+      <c r="G7" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="13" t="n">
@@ -835,7 +843,11 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C8" s="19" t="inlineStr"/>
+      <c r="C8" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1081,7 +1093,11 @@
       <c r="D18" s="20" t="inlineStr"/>
       <c r="E18" s="19" t="inlineStr"/>
       <c r="F18" s="20" t="inlineStr"/>
-      <c r="G18" s="19" t="inlineStr"/>
+      <c r="G18" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="13" t="n">
@@ -1131,7 +1147,11 @@
         </is>
       </c>
       <c r="F20" s="20" t="inlineStr"/>
-      <c r="G20" s="19" t="inlineStr"/>
+      <c r="G20" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="13" t="n">
@@ -1218,7 +1238,11 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C25" s="19" t="inlineStr"/>
+      <c r="C25" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1319,7 +1343,11 @@
         </is>
       </c>
       <c r="F28" s="20" t="inlineStr"/>
-      <c r="G28" s="19" t="inlineStr"/>
+      <c r="G28" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="13" t="n">
@@ -1372,7 +1400,11 @@
       <c r="D31" s="20" t="inlineStr"/>
       <c r="E31" s="19" t="inlineStr"/>
       <c r="F31" s="20" t="inlineStr"/>
-      <c r="G31" s="19" t="inlineStr"/>
+      <c r="G31" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="13" t="n">
@@ -1460,11 +1492,27 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C35" s="19" t="inlineStr"/>
-      <c r="D35" s="20" t="inlineStr"/>
-      <c r="E35" s="19" t="inlineStr"/>
+      <c r="C35" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F35" s="20" t="inlineStr"/>
-      <c r="G35" s="19" t="inlineStr"/>
+      <c r="G35" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="13" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -743,7 +743,11 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C4" s="19" t="inlineStr"/>
+      <c r="C4" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D4" s="22" t="inlineStr">
         <is>
           <t>ü</t>
@@ -797,7 +801,11 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C6" s="19" t="inlineStr"/>
+      <c r="C6" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D6" s="22" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1358,9 +1366,21 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C29" s="19" t="inlineStr"/>
-      <c r="D29" s="20" t="inlineStr"/>
-      <c r="E29" s="19" t="inlineStr"/>
+      <c r="C29" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D29" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F29" s="20" t="inlineStr"/>
       <c r="G29" s="19" t="inlineStr">
         <is>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2028" yWindow="708" windowWidth="11496" windowHeight="11652" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,7 +52,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -71,12 +71,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92FF8A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF62E359"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ffb14a"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0092ff8a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00eb972a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0062e359"/>
       </patternFill>
     </fill>
   </fills>
@@ -158,6 +178,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -199,17 +230,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -239,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -257,6 +277,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -267,34 +302,53 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -642,992 +696,1069 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="C5" sqref="A1:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.88671875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="9.109375" bestFit="1" customWidth="1" min="3" max="4"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="3" max="6"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="16.109375" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Minggu Ke-15</t>
         </is>
       </c>
-      <c r="D1" s="15" t="n"/>
-      <c r="E1" s="15" t="n"/>
-      <c r="F1" s="15" t="n"/>
-      <c r="G1" s="15" t="n"/>
+      <c r="D1" s="22" t="n"/>
+      <c r="E1" s="22" t="n"/>
+      <c r="F1" s="22" t="n"/>
+      <c r="G1" s="22" t="n"/>
+      <c r="H1" s="23" t="inlineStr">
+        <is>
+          <t>Minggu Ke-16</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="16" t="n"/>
-      <c r="B2" s="16" t="n"/>
-      <c r="C2" s="17" t="inlineStr">
+      <c r="A2" s="24" t="n"/>
+      <c r="B2" s="24" t="n"/>
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D2" s="17" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
-      <c r="E2" s="17" t="inlineStr">
+      <c r="E2" s="25" t="inlineStr">
         <is>
           <t>Tugas 3</t>
         </is>
       </c>
-      <c r="F2" s="17" t="inlineStr">
+      <c r="F2" s="25" t="inlineStr">
         <is>
           <t>Tugas 4</t>
         </is>
       </c>
-      <c r="G2" s="17" t="inlineStr">
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Tugas 5</t>
         </is>
       </c>
+      <c r="H2" s="26" t="inlineStr">
+        <is>
+          <t>Tugas 1</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="18" t="n"/>
-      <c r="B3" s="18" t="n"/>
-      <c r="C3" s="19" t="inlineStr">
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="27" t="n"/>
+      <c r="C3" s="28" t="inlineStr">
         <is>
           <t>MAT15</t>
         </is>
       </c>
-      <c r="D3" s="19" t="inlineStr">
+      <c r="D3" s="28" t="inlineStr">
         <is>
           <t>BINDO8</t>
         </is>
       </c>
-      <c r="E3" s="19" t="inlineStr">
+      <c r="E3" s="28" t="inlineStr">
         <is>
           <t>BINDO9</t>
         </is>
       </c>
-      <c r="F3" s="19" t="inlineStr">
+      <c r="F3" s="28" t="inlineStr">
         <is>
           <t>BASDA5</t>
         </is>
       </c>
-      <c r="G3" s="19" t="inlineStr">
+      <c r="G3" s="28" t="inlineStr">
         <is>
           <t>PAI12</t>
         </is>
       </c>
+      <c r="H3" s="29" t="inlineStr">
+        <is>
+          <t>MAT16</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="21" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C4" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D4" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E4" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F4" s="20" t="inlineStr"/>
-      <c r="G4" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C4" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F4" s="32" t="inlineStr"/>
+      <c r="G4" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H4" s="33" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C5" s="19" t="inlineStr"/>
-      <c r="D5" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E5" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F5" s="20" t="inlineStr"/>
-      <c r="G5" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C5" s="28" t="inlineStr"/>
+      <c r="D5" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F5" s="32" t="inlineStr"/>
+      <c r="G5" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H5" s="33" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="21" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C6" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D6" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E6" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F6" s="20" t="inlineStr"/>
-      <c r="G6" s="21" t="inlineStr">
+      <c r="C6" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D6" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E6" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F6" s="32" t="inlineStr"/>
+      <c r="G6" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H6" s="34" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B7" s="21" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C7" s="19" t="inlineStr"/>
-      <c r="D7" s="20" t="inlineStr"/>
-      <c r="E7" s="19" t="inlineStr"/>
-      <c r="F7" s="20" t="inlineStr"/>
-      <c r="G7" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C7" s="28" t="inlineStr"/>
+      <c r="D7" s="32" t="inlineStr"/>
+      <c r="E7" s="28" t="inlineStr"/>
+      <c r="F7" s="32" t="inlineStr"/>
+      <c r="G7" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H7" s="33" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B8" s="21" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C8" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D8" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E8" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F8" s="20" t="inlineStr"/>
-      <c r="G8" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C8" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D8" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E8" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F8" s="32" t="inlineStr"/>
+      <c r="G8" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H8" s="33" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B9" s="21" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C9" s="19" t="inlineStr"/>
-      <c r="D9" s="20" t="inlineStr"/>
-      <c r="E9" s="19" t="inlineStr"/>
-      <c r="F9" s="20" t="inlineStr"/>
-      <c r="G9" s="19" t="inlineStr"/>
+      <c r="C9" s="28" t="inlineStr"/>
+      <c r="D9" s="32" t="inlineStr"/>
+      <c r="E9" s="28" t="inlineStr"/>
+      <c r="F9" s="32" t="inlineStr"/>
+      <c r="G9" s="28" t="inlineStr"/>
+      <c r="H9" s="33" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C10" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D10" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F10" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G10" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C10" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D10" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E10" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F10" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G10" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H10" s="33" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C11" s="19" t="inlineStr"/>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="19" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="19" t="inlineStr"/>
+      <c r="C11" s="28" t="inlineStr"/>
+      <c r="D11" s="32" t="inlineStr"/>
+      <c r="E11" s="28" t="inlineStr"/>
+      <c r="F11" s="32" t="inlineStr"/>
+      <c r="G11" s="28" t="inlineStr"/>
+      <c r="H11" s="33" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B12" s="21" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C12" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D12" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E12" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F12" s="20" t="inlineStr"/>
-      <c r="G12" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C12" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D12" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E12" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F12" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G12" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H12" s="33" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="inlineStr">
+      <c r="B13" s="21" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C13" s="19" t="inlineStr"/>
-      <c r="D13" s="20" t="inlineStr"/>
-      <c r="E13" s="19" t="inlineStr"/>
-      <c r="F13" s="20" t="inlineStr"/>
-      <c r="G13" s="19" t="inlineStr"/>
+      <c r="C13" s="28" t="inlineStr"/>
+      <c r="D13" s="32" t="inlineStr"/>
+      <c r="E13" s="28" t="inlineStr"/>
+      <c r="F13" s="32" t="inlineStr"/>
+      <c r="G13" s="28" t="inlineStr"/>
+      <c r="H13" s="33" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B14" s="21" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C14" s="19" t="inlineStr"/>
-      <c r="D14" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E14" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F14" s="20" t="inlineStr"/>
-      <c r="G14" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C14" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F14" s="32" t="inlineStr"/>
+      <c r="G14" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H14" s="33" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="13" t="n">
+      <c r="A15" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="inlineStr">
+      <c r="B15" s="21" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C15" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D15" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F15" s="20" t="inlineStr"/>
-      <c r="G15" s="19" t="inlineStr">
+      <c r="C15" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D15" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E15" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F15" s="32" t="inlineStr"/>
+      <c r="G15" s="28" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="H15" s="33" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="14" t="inlineStr">
+      <c r="B16" s="21" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C16" s="19" t="inlineStr"/>
-      <c r="D16" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E16" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F16" s="20" t="inlineStr"/>
-      <c r="G16" s="19" t="inlineStr"/>
+      <c r="C16" s="28" t="inlineStr"/>
+      <c r="D16" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E16" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F16" s="32" t="inlineStr"/>
+      <c r="G16" s="28" t="inlineStr"/>
+      <c r="H16" s="33" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="inlineStr">
+      <c r="B17" s="21" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C17" s="19" t="inlineStr"/>
-      <c r="D17" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E17" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F17" s="20" t="inlineStr"/>
-      <c r="G17" s="19" t="inlineStr"/>
+      <c r="C17" s="28" t="inlineStr"/>
+      <c r="D17" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E17" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F17" s="32" t="inlineStr"/>
+      <c r="G17" s="28" t="inlineStr"/>
+      <c r="H17" s="33" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="13" t="n">
+      <c r="A18" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="14" t="inlineStr">
+      <c r="B18" s="21" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C18" s="19" t="inlineStr"/>
-      <c r="D18" s="20" t="inlineStr"/>
-      <c r="E18" s="19" t="inlineStr"/>
-      <c r="F18" s="20" t="inlineStr"/>
-      <c r="G18" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C18" s="28" t="inlineStr"/>
+      <c r="D18" s="32" t="inlineStr"/>
+      <c r="E18" s="28" t="inlineStr"/>
+      <c r="F18" s="32" t="inlineStr"/>
+      <c r="G18" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H18" s="33" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="13" t="n">
+      <c r="A19" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="14" t="inlineStr">
+      <c r="B19" s="21" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C19" s="19" t="inlineStr"/>
-      <c r="D19" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E19" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F19" s="20" t="inlineStr"/>
-      <c r="G19" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C19" s="28" t="inlineStr"/>
+      <c r="D19" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="32" t="inlineStr"/>
+      <c r="G19" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H19" s="33" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="13" t="n">
+      <c r="A20" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="14" t="inlineStr">
+      <c r="B20" s="21" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C20" s="19" t="inlineStr"/>
-      <c r="D20" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E20" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F20" s="20" t="inlineStr"/>
-      <c r="G20" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C20" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D20" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E20" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F20" s="32" t="inlineStr"/>
+      <c r="G20" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H20" s="33" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="13" t="n">
+      <c r="A21" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="14" t="inlineStr">
+      <c r="B21" s="21" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C21" s="19" t="inlineStr"/>
-      <c r="D21" s="20" t="inlineStr"/>
-      <c r="E21" s="19" t="inlineStr"/>
-      <c r="F21" s="20" t="inlineStr"/>
-      <c r="G21" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C21" s="28" t="inlineStr"/>
+      <c r="D21" s="32" t="inlineStr"/>
+      <c r="E21" s="28" t="inlineStr"/>
+      <c r="F21" s="32" t="inlineStr"/>
+      <c r="G21" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H21" s="33" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="13" t="n">
+      <c r="A22" s="20" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="14" t="inlineStr">
+      <c r="B22" s="21" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C22" s="19" t="inlineStr"/>
-      <c r="D22" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E22" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F22" s="20" t="inlineStr"/>
-      <c r="G22" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C22" s="28" t="inlineStr"/>
+      <c r="D22" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E22" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F22" s="32" t="inlineStr"/>
+      <c r="G22" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H22" s="33" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="13" t="n">
+      <c r="A23" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="14" t="inlineStr">
+      <c r="B23" s="21" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C23" s="19" t="inlineStr"/>
-      <c r="D23" s="20" t="inlineStr"/>
-      <c r="E23" s="19" t="inlineStr"/>
-      <c r="F23" s="20" t="inlineStr"/>
-      <c r="G23" s="19" t="inlineStr"/>
+      <c r="C23" s="28" t="inlineStr"/>
+      <c r="D23" s="32" t="inlineStr"/>
+      <c r="E23" s="28" t="inlineStr"/>
+      <c r="F23" s="32" t="inlineStr"/>
+      <c r="G23" s="28" t="inlineStr"/>
+      <c r="H23" s="33" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="13" t="n">
+      <c r="A24" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="14" t="inlineStr">
+      <c r="B24" s="21" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C24" s="19" t="inlineStr"/>
-      <c r="D24" s="20" t="inlineStr"/>
-      <c r="E24" s="19" t="inlineStr"/>
-      <c r="F24" s="20" t="inlineStr"/>
-      <c r="G24" s="19" t="inlineStr"/>
+      <c r="C24" s="28" t="inlineStr"/>
+      <c r="D24" s="32" t="inlineStr"/>
+      <c r="E24" s="28" t="inlineStr"/>
+      <c r="F24" s="32" t="inlineStr"/>
+      <c r="G24" s="28" t="inlineStr"/>
+      <c r="H24" s="33" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="13" t="n">
+      <c r="A25" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="14" t="inlineStr">
+      <c r="B25" s="21" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C25" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E25" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F25" s="20" t="inlineStr"/>
-      <c r="G25" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C25" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="32" t="inlineStr"/>
+      <c r="G25" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H25" s="33" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="13" t="n">
+      <c r="A26" s="20" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="14" t="inlineStr">
+      <c r="B26" s="21" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C26" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E26" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F26" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G26" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C26" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F26" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G26" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H26" s="33" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="13" t="n">
+      <c r="A27" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="14" t="inlineStr">
+      <c r="B27" s="21" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C27" s="19" t="inlineStr"/>
-      <c r="D27" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E27" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F27" s="20" t="inlineStr"/>
-      <c r="G27" s="19" t="inlineStr">
+      <c r="C27" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E27" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F27" s="32" t="inlineStr"/>
+      <c r="G27" s="28" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="H27" s="33" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="13" t="n">
+      <c r="A28" s="20" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="14" t="inlineStr">
+      <c r="B28" s="21" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C28" s="19" t="inlineStr"/>
-      <c r="D28" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E28" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F28" s="20" t="inlineStr"/>
-      <c r="G28" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C28" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E28" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F28" s="32" t="inlineStr"/>
+      <c r="G28" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H28" s="33" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="13" t="n">
+      <c r="A29" s="20" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="14" t="inlineStr">
+      <c r="B29" s="21" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C29" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D29" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E29" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F29" s="20" t="inlineStr"/>
-      <c r="G29" s="19" t="inlineStr">
+      <c r="C29" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D29" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E29" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F29" s="32" t="inlineStr"/>
+      <c r="G29" s="28" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="H29" s="33" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="13" t="n">
+      <c r="A30" s="20" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="14" t="inlineStr">
+      <c r="B30" s="21" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C30" s="19" t="inlineStr"/>
-      <c r="D30" s="20" t="inlineStr"/>
-      <c r="E30" s="19" t="inlineStr"/>
-      <c r="F30" s="20" t="inlineStr"/>
-      <c r="G30" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C30" s="28" t="inlineStr"/>
+      <c r="D30" s="32" t="inlineStr"/>
+      <c r="E30" s="28" t="inlineStr"/>
+      <c r="F30" s="32" t="inlineStr"/>
+      <c r="G30" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H30" s="33" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="13" t="n">
+      <c r="A31" s="20" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="14" t="inlineStr">
+      <c r="B31" s="21" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C31" s="19" t="inlineStr"/>
-      <c r="D31" s="20" t="inlineStr"/>
-      <c r="E31" s="19" t="inlineStr"/>
-      <c r="F31" s="20" t="inlineStr"/>
-      <c r="G31" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C31" s="28" t="inlineStr"/>
+      <c r="D31" s="32" t="inlineStr"/>
+      <c r="E31" s="28" t="inlineStr"/>
+      <c r="F31" s="32" t="inlineStr"/>
+      <c r="G31" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H31" s="33" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="13" t="n">
+      <c r="A32" s="20" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="14" t="inlineStr">
+      <c r="B32" s="21" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C32" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D32" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E32" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F32" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G32" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C32" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D32" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E32" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F32" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G32" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H32" s="33" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="13" t="n">
+      <c r="A33" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="14" t="inlineStr">
+      <c r="B33" s="21" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C33" s="19" t="inlineStr"/>
-      <c r="D33" s="20" t="inlineStr"/>
-      <c r="E33" s="19" t="inlineStr"/>
-      <c r="F33" s="20" t="inlineStr"/>
-      <c r="G33" s="19" t="inlineStr"/>
+      <c r="C33" s="28" t="inlineStr"/>
+      <c r="D33" s="32" t="inlineStr"/>
+      <c r="E33" s="28" t="inlineStr"/>
+      <c r="F33" s="32" t="inlineStr"/>
+      <c r="G33" s="28" t="inlineStr"/>
+      <c r="H33" s="33" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="13" t="n">
+      <c r="A34" s="20" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="14" t="inlineStr">
+      <c r="B34" s="21" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C34" s="19" t="inlineStr"/>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E34" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F34" s="20" t="inlineStr"/>
-      <c r="G34" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C34" s="28" t="inlineStr"/>
+      <c r="D34" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F34" s="32" t="inlineStr"/>
+      <c r="G34" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H34" s="33" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="13" t="n">
+      <c r="A35" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="14" t="inlineStr">
+      <c r="B35" s="21" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C35" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E35" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F35" s="20" t="inlineStr"/>
-      <c r="G35" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C35" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="32" t="inlineStr"/>
+      <c r="G35" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H35" s="33" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="13" t="n">
+      <c r="A36" s="20" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="14" t="inlineStr">
+      <c r="B36" s="21" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C36" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D36" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E36" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F36" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G36" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C36" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G36" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H36" s="33" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="13" t="n">
+      <c r="A37" s="20" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="14" t="inlineStr">
+      <c r="B37" s="21" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C37" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D37" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E37" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F37" s="22" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G37" s="21" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C37" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D37" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E37" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G37" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H37" s="33" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
-      <c r="A38" s="13" t="n">
+      <c r="A38" s="20" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="14" t="inlineStr">
+      <c r="B38" s="21" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C38" s="19" t="inlineStr"/>
-      <c r="D38" s="20" t="inlineStr"/>
-      <c r="E38" s="19" t="inlineStr"/>
-      <c r="F38" s="20" t="inlineStr"/>
-      <c r="G38" s="19" t="inlineStr">
+      <c r="C38" s="28" t="inlineStr"/>
+      <c r="D38" s="32" t="inlineStr"/>
+      <c r="E38" s="28" t="inlineStr"/>
+      <c r="F38" s="32" t="inlineStr"/>
+      <c r="G38" s="28" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="H38" s="33" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2028" yWindow="708" windowWidth="11496" windowHeight="11652" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -66,12 +66,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEB972A"/>
+        <fgColor rgb="FF92FF8A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92FF8A"/>
+        <fgColor rgb="FFEB972A"/>
       </patternFill>
     </fill>
     <fill>
@@ -100,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -227,34 +227,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -270,6 +242,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,19 +254,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -302,7 +277,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -351,8 +326,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,10 +672,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:H38"/>
+      <selection activeCell="H5" sqref="A1:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -708,1057 +684,1206 @@
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="9.109375" bestFit="1" customWidth="1" min="3" max="6"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="16.109375" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" min="9" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="17" t="inlineStr">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="22" t="inlineStr">
+      <c r="C1" s="23" t="inlineStr">
         <is>
           <t>Minggu Ke-15</t>
         </is>
       </c>
-      <c r="D1" s="22" t="n"/>
-      <c r="E1" s="22" t="n"/>
-      <c r="F1" s="22" t="n"/>
-      <c r="G1" s="22" t="n"/>
-      <c r="H1" s="23" t="inlineStr">
+      <c r="D1" s="23" t="n"/>
+      <c r="E1" s="23" t="n"/>
+      <c r="F1" s="23" t="n"/>
+      <c r="G1" s="23" t="n"/>
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Minggu Ke-16</t>
         </is>
       </c>
+      <c r="I1" s="24" t="n"/>
+      <c r="J1" s="24" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="24" t="n"/>
-      <c r="B2" s="24" t="n"/>
-      <c r="C2" s="25" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D2" s="25" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
-      <c r="E2" s="25" t="inlineStr">
+      <c r="E2" s="26" t="inlineStr">
         <is>
           <t>Tugas 3</t>
         </is>
       </c>
-      <c r="F2" s="25" t="inlineStr">
+      <c r="F2" s="26" t="inlineStr">
         <is>
           <t>Tugas 4</t>
         </is>
       </c>
-      <c r="G2" s="25" t="inlineStr">
+      <c r="G2" s="26" t="inlineStr">
         <is>
           <t>Tugas 5</t>
         </is>
       </c>
-      <c r="H2" s="26" t="inlineStr">
+      <c r="H2" s="27" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="I2" s="27" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
+      <c r="J2" s="27" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="27" t="n"/>
-      <c r="B3" s="27" t="n"/>
-      <c r="C3" s="28" t="inlineStr">
+      <c r="A3" s="28" t="n"/>
+      <c r="B3" s="28" t="n"/>
+      <c r="C3" s="29" t="inlineStr">
         <is>
           <t>MAT15</t>
         </is>
       </c>
-      <c r="D3" s="28" t="inlineStr">
+      <c r="D3" s="29" t="inlineStr">
         <is>
           <t>BINDO8</t>
         </is>
       </c>
-      <c r="E3" s="28" t="inlineStr">
+      <c r="E3" s="29" t="inlineStr">
         <is>
           <t>BINDO9</t>
         </is>
       </c>
-      <c r="F3" s="28" t="inlineStr">
+      <c r="F3" s="29" t="inlineStr">
         <is>
           <t>BASDA5</t>
         </is>
       </c>
-      <c r="G3" s="28" t="inlineStr">
+      <c r="G3" s="29" t="inlineStr">
         <is>
           <t>PAI12</t>
         </is>
       </c>
-      <c r="H3" s="29" t="inlineStr">
+      <c r="H3" s="30" t="inlineStr">
         <is>
           <t>MAT16</t>
         </is>
       </c>
+      <c r="I3" s="30" t="inlineStr">
+        <is>
+          <t>BINDO10</t>
+        </is>
+      </c>
+      <c r="J3" s="30" t="inlineStr">
+        <is>
+          <t>BINDO11</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="20" t="n">
+      <c r="A4" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="inlineStr">
+      <c r="B4" s="22" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C4" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D4" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E4" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F4" s="32" t="inlineStr"/>
-      <c r="G4" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H4" s="33" t="inlineStr"/>
+      <c r="C4" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F4" s="33" t="inlineStr"/>
+      <c r="G4" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H4" s="34" t="inlineStr"/>
+      <c r="I4" s="30" t="inlineStr"/>
+      <c r="J4" s="34" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="20" t="n">
+      <c r="A5" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="inlineStr">
+      <c r="B5" s="22" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C5" s="28" t="inlineStr"/>
-      <c r="D5" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E5" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F5" s="32" t="inlineStr"/>
-      <c r="G5" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H5" s="33" t="inlineStr"/>
+      <c r="C5" s="29" t="inlineStr"/>
+      <c r="D5" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F5" s="33" t="inlineStr"/>
+      <c r="G5" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H5" s="34" t="inlineStr"/>
+      <c r="I5" s="30" t="inlineStr"/>
+      <c r="J5" s="34" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="20" t="n">
+      <c r="A6" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="inlineStr">
+      <c r="B6" s="22" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C6" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D6" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E6" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F6" s="32" t="inlineStr"/>
-      <c r="G6" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H6" s="34" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C6" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D6" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E6" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F6" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G6" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H6" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I6" s="30" t="inlineStr"/>
+      <c r="J6" s="34" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="20" t="n">
+      <c r="A7" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="inlineStr">
+      <c r="B7" s="22" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C7" s="28" t="inlineStr"/>
-      <c r="D7" s="32" t="inlineStr"/>
-      <c r="E7" s="28" t="inlineStr"/>
-      <c r="F7" s="32" t="inlineStr"/>
-      <c r="G7" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H7" s="33" t="inlineStr"/>
+      <c r="C7" s="29" t="inlineStr"/>
+      <c r="D7" s="33" t="inlineStr"/>
+      <c r="E7" s="29" t="inlineStr"/>
+      <c r="F7" s="33" t="inlineStr"/>
+      <c r="G7" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H7" s="34" t="inlineStr"/>
+      <c r="I7" s="30" t="inlineStr"/>
+      <c r="J7" s="34" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="20" t="n">
+      <c r="A8" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="inlineStr">
+      <c r="B8" s="22" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C8" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D8" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E8" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F8" s="32" t="inlineStr"/>
-      <c r="G8" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H8" s="33" t="inlineStr"/>
+      <c r="C8" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D8" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E8" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F8" s="33" t="inlineStr"/>
+      <c r="G8" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H8" s="34" t="inlineStr"/>
+      <c r="I8" s="30" t="inlineStr"/>
+      <c r="J8" s="34" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="20" t="n">
+      <c r="A9" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="inlineStr">
+      <c r="B9" s="22" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C9" s="28" t="inlineStr"/>
-      <c r="D9" s="32" t="inlineStr"/>
-      <c r="E9" s="28" t="inlineStr"/>
-      <c r="F9" s="32" t="inlineStr"/>
-      <c r="G9" s="28" t="inlineStr"/>
-      <c r="H9" s="33" t="inlineStr"/>
+      <c r="C9" s="29" t="inlineStr"/>
+      <c r="D9" s="33" t="inlineStr"/>
+      <c r="E9" s="29" t="inlineStr"/>
+      <c r="F9" s="33" t="inlineStr"/>
+      <c r="G9" s="29" t="inlineStr"/>
+      <c r="H9" s="34" t="inlineStr"/>
+      <c r="I9" s="30" t="inlineStr"/>
+      <c r="J9" s="34" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="20" t="n">
+      <c r="A10" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="22" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C10" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D10" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E10" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F10" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G10" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H10" s="33" t="inlineStr"/>
+      <c r="C10" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D10" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E10" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F10" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G10" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H10" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I10" s="30" t="inlineStr"/>
+      <c r="J10" s="34" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="20" t="n">
+      <c r="A11" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="inlineStr">
+      <c r="B11" s="22" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C11" s="28" t="inlineStr"/>
-      <c r="D11" s="32" t="inlineStr"/>
-      <c r="E11" s="28" t="inlineStr"/>
-      <c r="F11" s="32" t="inlineStr"/>
-      <c r="G11" s="28" t="inlineStr"/>
-      <c r="H11" s="33" t="inlineStr"/>
+      <c r="C11" s="29" t="inlineStr"/>
+      <c r="D11" s="33" t="inlineStr"/>
+      <c r="E11" s="29" t="inlineStr"/>
+      <c r="F11" s="33" t="inlineStr"/>
+      <c r="G11" s="29" t="inlineStr"/>
+      <c r="H11" s="34" t="inlineStr"/>
+      <c r="I11" s="30" t="inlineStr"/>
+      <c r="J11" s="34" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="20" t="n">
+      <c r="A12" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="21" t="inlineStr">
+      <c r="B12" s="22" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C12" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D12" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E12" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F12" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G12" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H12" s="33" t="inlineStr"/>
+      <c r="C12" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D12" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E12" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F12" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G12" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H12" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I12" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J12" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="20" t="n">
+      <c r="A13" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="inlineStr">
+      <c r="B13" s="22" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C13" s="28" t="inlineStr"/>
-      <c r="D13" s="32" t="inlineStr"/>
-      <c r="E13" s="28" t="inlineStr"/>
-      <c r="F13" s="32" t="inlineStr"/>
-      <c r="G13" s="28" t="inlineStr"/>
-      <c r="H13" s="33" t="inlineStr"/>
+      <c r="C13" s="29" t="inlineStr"/>
+      <c r="D13" s="33" t="inlineStr"/>
+      <c r="E13" s="29" t="inlineStr"/>
+      <c r="F13" s="33" t="inlineStr"/>
+      <c r="G13" s="29" t="inlineStr"/>
+      <c r="H13" s="34" t="inlineStr"/>
+      <c r="I13" s="30" t="inlineStr"/>
+      <c r="J13" s="34" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="20" t="n">
+      <c r="A14" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="21" t="inlineStr">
+      <c r="B14" s="22" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C14" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D14" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E14" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F14" s="32" t="inlineStr"/>
-      <c r="G14" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H14" s="33" t="inlineStr"/>
+      <c r="C14" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F14" s="33" t="inlineStr"/>
+      <c r="G14" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H14" s="34" t="inlineStr"/>
+      <c r="I14" s="30" t="inlineStr"/>
+      <c r="J14" s="34" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="21" t="inlineStr">
+      <c r="B15" s="22" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C15" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D15" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E15" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F15" s="32" t="inlineStr"/>
-      <c r="G15" s="28" t="inlineStr">
+      <c r="C15" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D15" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E15" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F15" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G15" s="29" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="H15" s="33" t="inlineStr"/>
+      <c r="H15" s="34" t="inlineStr"/>
+      <c r="I15" s="30" t="inlineStr"/>
+      <c r="J15" s="34" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="20" t="n">
+      <c r="A16" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="21" t="inlineStr">
+      <c r="B16" s="22" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C16" s="28" t="inlineStr"/>
-      <c r="D16" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E16" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F16" s="32" t="inlineStr"/>
-      <c r="G16" s="28" t="inlineStr"/>
-      <c r="H16" s="33" t="inlineStr"/>
+      <c r="C16" s="29" t="inlineStr"/>
+      <c r="D16" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E16" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F16" s="33" t="inlineStr"/>
+      <c r="G16" s="29" t="inlineStr"/>
+      <c r="H16" s="34" t="inlineStr"/>
+      <c r="I16" s="30" t="inlineStr"/>
+      <c r="J16" s="34" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="20" t="n">
+      <c r="A17" s="21" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="21" t="inlineStr">
+      <c r="B17" s="22" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C17" s="28" t="inlineStr"/>
-      <c r="D17" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E17" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F17" s="32" t="inlineStr"/>
-      <c r="G17" s="28" t="inlineStr"/>
-      <c r="H17" s="33" t="inlineStr"/>
+      <c r="C17" s="29" t="inlineStr"/>
+      <c r="D17" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E17" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F17" s="33" t="inlineStr"/>
+      <c r="G17" s="29" t="inlineStr"/>
+      <c r="H17" s="34" t="inlineStr"/>
+      <c r="I17" s="30" t="inlineStr"/>
+      <c r="J17" s="34" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="20" t="n">
+      <c r="A18" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="21" t="inlineStr">
+      <c r="B18" s="22" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C18" s="28" t="inlineStr"/>
-      <c r="D18" s="32" t="inlineStr"/>
-      <c r="E18" s="28" t="inlineStr"/>
-      <c r="F18" s="32" t="inlineStr"/>
-      <c r="G18" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H18" s="33" t="inlineStr"/>
+      <c r="C18" s="29" t="inlineStr"/>
+      <c r="D18" s="33" t="inlineStr"/>
+      <c r="E18" s="29" t="inlineStr"/>
+      <c r="F18" s="33" t="inlineStr"/>
+      <c r="G18" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H18" s="34" t="inlineStr"/>
+      <c r="I18" s="30" t="inlineStr"/>
+      <c r="J18" s="34" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="20" t="n">
+      <c r="A19" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="21" t="inlineStr">
+      <c r="B19" s="22" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C19" s="28" t="inlineStr"/>
-      <c r="D19" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E19" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F19" s="32" t="inlineStr"/>
-      <c r="G19" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H19" s="33" t="inlineStr"/>
+      <c r="C19" s="29" t="inlineStr"/>
+      <c r="D19" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="33" t="inlineStr"/>
+      <c r="G19" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H19" s="34" t="inlineStr"/>
+      <c r="I19" s="30" t="inlineStr"/>
+      <c r="J19" s="34" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="20" t="n">
+      <c r="A20" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="21" t="inlineStr">
+      <c r="B20" s="22" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C20" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D20" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E20" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F20" s="32" t="inlineStr"/>
-      <c r="G20" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H20" s="33" t="inlineStr"/>
+      <c r="C20" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D20" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E20" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F20" s="33" t="inlineStr"/>
+      <c r="G20" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H20" s="34" t="inlineStr"/>
+      <c r="I20" s="30" t="inlineStr"/>
+      <c r="J20" s="34" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="20" t="n">
+      <c r="A21" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="21" t="inlineStr">
+      <c r="B21" s="22" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C21" s="28" t="inlineStr"/>
-      <c r="D21" s="32" t="inlineStr"/>
-      <c r="E21" s="28" t="inlineStr"/>
-      <c r="F21" s="32" t="inlineStr"/>
-      <c r="G21" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H21" s="33" t="inlineStr"/>
+      <c r="C21" s="29" t="inlineStr"/>
+      <c r="D21" s="33" t="inlineStr"/>
+      <c r="E21" s="29" t="inlineStr"/>
+      <c r="F21" s="33" t="inlineStr"/>
+      <c r="G21" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H21" s="34" t="inlineStr"/>
+      <c r="I21" s="30" t="inlineStr"/>
+      <c r="J21" s="34" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="21" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="21" t="inlineStr">
+      <c r="B22" s="22" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C22" s="28" t="inlineStr"/>
-      <c r="D22" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E22" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F22" s="32" t="inlineStr"/>
-      <c r="G22" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H22" s="33" t="inlineStr"/>
+      <c r="C22" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D22" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E22" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F22" s="33" t="inlineStr"/>
+      <c r="G22" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H22" s="34" t="inlineStr"/>
+      <c r="I22" s="30" t="inlineStr"/>
+      <c r="J22" s="34" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="21" t="inlineStr">
+      <c r="B23" s="22" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C23" s="28" t="inlineStr"/>
-      <c r="D23" s="32" t="inlineStr"/>
-      <c r="E23" s="28" t="inlineStr"/>
-      <c r="F23" s="32" t="inlineStr"/>
-      <c r="G23" s="28" t="inlineStr"/>
-      <c r="H23" s="33" t="inlineStr"/>
+      <c r="C23" s="29" t="inlineStr"/>
+      <c r="D23" s="33" t="inlineStr"/>
+      <c r="E23" s="29" t="inlineStr"/>
+      <c r="F23" s="33" t="inlineStr"/>
+      <c r="G23" s="29" t="inlineStr"/>
+      <c r="H23" s="34" t="inlineStr"/>
+      <c r="I23" s="30" t="inlineStr"/>
+      <c r="J23" s="34" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="20" t="n">
+      <c r="A24" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="21" t="inlineStr">
+      <c r="B24" s="22" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C24" s="28" t="inlineStr"/>
-      <c r="D24" s="32" t="inlineStr"/>
-      <c r="E24" s="28" t="inlineStr"/>
-      <c r="F24" s="32" t="inlineStr"/>
-      <c r="G24" s="28" t="inlineStr"/>
-      <c r="H24" s="33" t="inlineStr"/>
+      <c r="C24" s="29" t="inlineStr"/>
+      <c r="D24" s="33" t="inlineStr"/>
+      <c r="E24" s="29" t="inlineStr"/>
+      <c r="F24" s="33" t="inlineStr"/>
+      <c r="G24" s="29" t="inlineStr"/>
+      <c r="H24" s="34" t="inlineStr"/>
+      <c r="I24" s="30" t="inlineStr"/>
+      <c r="J24" s="34" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="20" t="n">
+      <c r="A25" s="21" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="21" t="inlineStr">
+      <c r="B25" s="22" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C25" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E25" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F25" s="32" t="inlineStr"/>
-      <c r="G25" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H25" s="33" t="inlineStr"/>
+      <c r="C25" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="33" t="inlineStr"/>
+      <c r="G25" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H25" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I25" s="30" t="inlineStr"/>
+      <c r="J25" s="34" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="20" t="n">
+      <c r="A26" s="21" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="21" t="inlineStr">
+      <c r="B26" s="22" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C26" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D26" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E26" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F26" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G26" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H26" s="33" t="inlineStr"/>
+      <c r="C26" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F26" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G26" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H26" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I26" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J26" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="20" t="n">
+      <c r="A27" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="21" t="inlineStr">
+      <c r="B27" s="22" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C27" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D27" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E27" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F27" s="32" t="inlineStr"/>
-      <c r="G27" s="28" t="inlineStr">
+      <c r="C27" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E27" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F27" s="33" t="inlineStr"/>
+      <c r="G27" s="29" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="H27" s="33" t="inlineStr"/>
+      <c r="H27" s="34" t="inlineStr"/>
+      <c r="I27" s="30" t="inlineStr"/>
+      <c r="J27" s="34" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="20" t="n">
+      <c r="A28" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="21" t="inlineStr">
+      <c r="B28" s="22" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C28" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D28" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E28" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F28" s="32" t="inlineStr"/>
-      <c r="G28" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H28" s="33" t="inlineStr"/>
+      <c r="C28" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E28" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F28" s="33" t="inlineStr"/>
+      <c r="G28" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H28" s="34" t="inlineStr"/>
+      <c r="I28" s="30" t="inlineStr"/>
+      <c r="J28" s="34" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="20" t="n">
+      <c r="A29" s="21" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="21" t="inlineStr">
+      <c r="B29" s="22" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D29" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E29" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F29" s="32" t="inlineStr"/>
-      <c r="G29" s="28" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D29" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E29" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F29" s="33" t="inlineStr"/>
+      <c r="G29" s="29" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="H29" s="33" t="inlineStr"/>
+      <c r="H29" s="34" t="inlineStr"/>
+      <c r="I29" s="30" t="inlineStr"/>
+      <c r="J29" s="34" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="20" t="n">
+      <c r="A30" s="21" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="21" t="inlineStr">
+      <c r="B30" s="22" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C30" s="28" t="inlineStr"/>
-      <c r="D30" s="32" t="inlineStr"/>
-      <c r="E30" s="28" t="inlineStr"/>
-      <c r="F30" s="32" t="inlineStr"/>
-      <c r="G30" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H30" s="33" t="inlineStr"/>
+      <c r="C30" s="29" t="inlineStr"/>
+      <c r="D30" s="33" t="inlineStr"/>
+      <c r="E30" s="29" t="inlineStr"/>
+      <c r="F30" s="33" t="inlineStr"/>
+      <c r="G30" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H30" s="34" t="inlineStr"/>
+      <c r="I30" s="30" t="inlineStr"/>
+      <c r="J30" s="34" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="20" t="n">
+      <c r="A31" s="21" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="21" t="inlineStr">
+      <c r="B31" s="22" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C31" s="28" t="inlineStr"/>
-      <c r="D31" s="32" t="inlineStr"/>
-      <c r="E31" s="28" t="inlineStr"/>
-      <c r="F31" s="32" t="inlineStr"/>
-      <c r="G31" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H31" s="33" t="inlineStr"/>
+      <c r="C31" s="29" t="inlineStr"/>
+      <c r="D31" s="33" t="inlineStr"/>
+      <c r="E31" s="29" t="inlineStr"/>
+      <c r="F31" s="33" t="inlineStr"/>
+      <c r="G31" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H31" s="34" t="inlineStr"/>
+      <c r="I31" s="30" t="inlineStr"/>
+      <c r="J31" s="34" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="20" t="n">
+      <c r="A32" s="21" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="21" t="inlineStr">
+      <c r="B32" s="22" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C32" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D32" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E32" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F32" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G32" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H32" s="33" t="inlineStr"/>
+      <c r="C32" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D32" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E32" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F32" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G32" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H32" s="34" t="inlineStr"/>
+      <c r="I32" s="30" t="inlineStr"/>
+      <c r="J32" s="34" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="20" t="n">
+      <c r="A33" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="21" t="inlineStr">
+      <c r="B33" s="22" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C33" s="28" t="inlineStr"/>
-      <c r="D33" s="32" t="inlineStr"/>
-      <c r="E33" s="28" t="inlineStr"/>
-      <c r="F33" s="32" t="inlineStr"/>
-      <c r="G33" s="28" t="inlineStr"/>
-      <c r="H33" s="33" t="inlineStr"/>
+      <c r="C33" s="29" t="inlineStr"/>
+      <c r="D33" s="33" t="inlineStr"/>
+      <c r="E33" s="29" t="inlineStr"/>
+      <c r="F33" s="33" t="inlineStr"/>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="34" t="inlineStr"/>
+      <c r="I33" s="30" t="inlineStr"/>
+      <c r="J33" s="34" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="20" t="n">
+      <c r="A34" s="21" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="21" t="inlineStr">
+      <c r="B34" s="22" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C34" s="28" t="inlineStr"/>
-      <c r="D34" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E34" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F34" s="32" t="inlineStr"/>
-      <c r="G34" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H34" s="33" t="inlineStr"/>
+      <c r="C34" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D34" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F34" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G34" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H34" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I34" s="30" t="inlineStr"/>
+      <c r="J34" s="34" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="20" t="n">
+      <c r="A35" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="21" t="inlineStr">
+      <c r="B35" s="22" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C35" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E35" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F35" s="32" t="inlineStr"/>
-      <c r="G35" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H35" s="33" t="inlineStr"/>
+      <c r="C35" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="33" t="inlineStr"/>
+      <c r="G35" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H35" s="34" t="inlineStr"/>
+      <c r="I35" s="30" t="inlineStr"/>
+      <c r="J35" s="34" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="20" t="n">
+      <c r="A36" s="21" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="21" t="inlineStr">
+      <c r="B36" s="22" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C36" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D36" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E36" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F36" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G36" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H36" s="33" t="inlineStr"/>
+      <c r="C36" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G36" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H36" s="34" t="inlineStr"/>
+      <c r="I36" s="30" t="inlineStr"/>
+      <c r="J36" s="34" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="20" t="n">
+      <c r="A37" s="21" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="21" t="inlineStr">
+      <c r="B37" s="22" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C37" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D37" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E37" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F37" s="31" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G37" s="30" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H37" s="33" t="inlineStr"/>
+      <c r="C37" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D37" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E37" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G37" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H37" s="34" t="inlineStr"/>
+      <c r="I37" s="30" t="inlineStr"/>
+      <c r="J37" s="34" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
-      <c r="A38" s="20" t="n">
+      <c r="A38" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="21" t="inlineStr">
+      <c r="B38" s="22" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C38" s="28" t="inlineStr"/>
-      <c r="D38" s="32" t="inlineStr"/>
-      <c r="E38" s="28" t="inlineStr"/>
-      <c r="F38" s="32" t="inlineStr"/>
-      <c r="G38" s="28" t="inlineStr">
+      <c r="C38" s="29" t="inlineStr"/>
+      <c r="D38" s="33" t="inlineStr"/>
+      <c r="E38" s="29" t="inlineStr"/>
+      <c r="F38" s="33" t="inlineStr"/>
+      <c r="G38" s="29" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="H38" s="33" t="inlineStr"/>
+      <c r="H38" s="34" t="inlineStr"/>
+      <c r="I38" s="30" t="inlineStr"/>
+      <c r="J38" s="34" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -100,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -227,11 +227,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +357,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,7 +1235,11 @@
         </is>
       </c>
       <c r="F16" s="33" t="inlineStr"/>
-      <c r="G16" s="29" t="inlineStr"/>
+      <c r="G16" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H16" s="34" t="inlineStr"/>
       <c r="I16" s="30" t="inlineStr"/>
       <c r="J16" s="34" t="inlineStr"/>
@@ -1245,7 +1279,11 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C18" s="29" t="inlineStr"/>
+      <c r="C18" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D18" s="33" t="inlineStr"/>
       <c r="E18" s="29" t="inlineStr"/>
       <c r="F18" s="33" t="inlineStr"/>
@@ -1254,7 +1292,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H18" s="34" t="inlineStr"/>
+      <c r="H18" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I18" s="30" t="inlineStr"/>
       <c r="J18" s="34" t="inlineStr"/>
     </row>
@@ -1526,7 +1568,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F27" s="33" t="inlineStr"/>
+      <c r="F27" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G27" s="29" t="inlineStr">
         <is>
           <t>NON-MUS</t>
@@ -1682,9 +1728,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H32" s="34" t="inlineStr"/>
-      <c r="I32" s="30" t="inlineStr"/>
-      <c r="J32" s="34" t="inlineStr"/>
+      <c r="H32" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I32" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J32" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="21" t="n">
@@ -1699,7 +1757,11 @@
       <c r="D33" s="33" t="inlineStr"/>
       <c r="E33" s="29" t="inlineStr"/>
       <c r="F33" s="33" t="inlineStr"/>
-      <c r="G33" s="29" t="inlineStr"/>
+      <c r="G33" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H33" s="34" t="inlineStr"/>
       <c r="I33" s="30" t="inlineStr"/>
       <c r="J33" s="34" t="inlineStr"/>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -702,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H5" sqref="A1:J38"/>
@@ -745,6 +745,9 @@
       </c>
       <c r="I1" s="24" t="n"/>
       <c r="J1" s="24" t="n"/>
+      <c r="K1" s="24" t="n"/>
+      <c r="L1" s="24" t="n"/>
+      <c r="M1" s="24" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="25" t="n"/>
@@ -789,6 +792,21 @@
           <t>Tugas 3</t>
         </is>
       </c>
+      <c r="K2" s="27" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
+      <c r="L2" s="27" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
+      <c r="M2" s="27" t="inlineStr">
+        <is>
+          <t>Tugas 6</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="28" t="n"/>
@@ -833,6 +851,21 @@
           <t>BINDO11</t>
         </is>
       </c>
+      <c r="K3" s="30" t="inlineStr">
+        <is>
+          <t>PPL4</t>
+        </is>
+      </c>
+      <c r="L3" s="30" t="inlineStr">
+        <is>
+          <t>PJOK2</t>
+        </is>
+      </c>
+      <c r="M3" s="30" t="inlineStr">
+        <is>
+          <t>PKN6</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="21" t="n">
@@ -867,6 +900,9 @@
       <c r="H4" s="34" t="inlineStr"/>
       <c r="I4" s="30" t="inlineStr"/>
       <c r="J4" s="34" t="inlineStr"/>
+      <c r="K4" s="30" t="inlineStr"/>
+      <c r="L4" s="34" t="inlineStr"/>
+      <c r="M4" s="30" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="21" t="n">
@@ -897,6 +933,9 @@
       <c r="H5" s="34" t="inlineStr"/>
       <c r="I5" s="30" t="inlineStr"/>
       <c r="J5" s="34" t="inlineStr"/>
+      <c r="K5" s="30" t="inlineStr"/>
+      <c r="L5" s="34" t="inlineStr"/>
+      <c r="M5" s="30" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="21" t="n">
@@ -939,6 +978,9 @@
       </c>
       <c r="I6" s="30" t="inlineStr"/>
       <c r="J6" s="34" t="inlineStr"/>
+      <c r="K6" s="30" t="inlineStr"/>
+      <c r="L6" s="34" t="inlineStr"/>
+      <c r="M6" s="30" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="21" t="n">
@@ -961,6 +1003,9 @@
       <c r="H7" s="34" t="inlineStr"/>
       <c r="I7" s="30" t="inlineStr"/>
       <c r="J7" s="34" t="inlineStr"/>
+      <c r="K7" s="30" t="inlineStr"/>
+      <c r="L7" s="34" t="inlineStr"/>
+      <c r="M7" s="30" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="21" t="n">
@@ -986,7 +1031,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F8" s="33" t="inlineStr"/>
+      <c r="F8" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G8" s="31" t="inlineStr">
         <is>
           <t>ü</t>
@@ -995,6 +1044,13 @@
       <c r="H8" s="34" t="inlineStr"/>
       <c r="I8" s="30" t="inlineStr"/>
       <c r="J8" s="34" t="inlineStr"/>
+      <c r="K8" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L8" s="34" t="inlineStr"/>
+      <c r="M8" s="30" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="21" t="n">
@@ -1013,6 +1069,9 @@
       <c r="H9" s="34" t="inlineStr"/>
       <c r="I9" s="30" t="inlineStr"/>
       <c r="J9" s="34" t="inlineStr"/>
+      <c r="K9" s="30" t="inlineStr"/>
+      <c r="L9" s="34" t="inlineStr"/>
+      <c r="M9" s="30" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="21" t="n">
@@ -1055,6 +1114,9 @@
       </c>
       <c r="I10" s="30" t="inlineStr"/>
       <c r="J10" s="34" t="inlineStr"/>
+      <c r="K10" s="30" t="inlineStr"/>
+      <c r="L10" s="34" t="inlineStr"/>
+      <c r="M10" s="30" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="21" t="n">
@@ -1073,6 +1135,9 @@
       <c r="H11" s="34" t="inlineStr"/>
       <c r="I11" s="30" t="inlineStr"/>
       <c r="J11" s="34" t="inlineStr"/>
+      <c r="K11" s="30" t="inlineStr"/>
+      <c r="L11" s="34" t="inlineStr"/>
+      <c r="M11" s="30" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="21" t="n">
@@ -1123,6 +1188,9 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="K12" s="30" t="inlineStr"/>
+      <c r="L12" s="34" t="inlineStr"/>
+      <c r="M12" s="30" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="21" t="n">
@@ -1141,6 +1209,9 @@
       <c r="H13" s="34" t="inlineStr"/>
       <c r="I13" s="30" t="inlineStr"/>
       <c r="J13" s="34" t="inlineStr"/>
+      <c r="K13" s="30" t="inlineStr"/>
+      <c r="L13" s="34" t="inlineStr"/>
+      <c r="M13" s="30" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="21" t="n">
@@ -1175,6 +1246,9 @@
       <c r="H14" s="34" t="inlineStr"/>
       <c r="I14" s="30" t="inlineStr"/>
       <c r="J14" s="34" t="inlineStr"/>
+      <c r="K14" s="30" t="inlineStr"/>
+      <c r="L14" s="34" t="inlineStr"/>
+      <c r="M14" s="30" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="21" t="n">
@@ -1213,6 +1287,9 @@
       <c r="H15" s="34" t="inlineStr"/>
       <c r="I15" s="30" t="inlineStr"/>
       <c r="J15" s="34" t="inlineStr"/>
+      <c r="K15" s="30" t="inlineStr"/>
+      <c r="L15" s="34" t="inlineStr"/>
+      <c r="M15" s="30" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="21" t="n">
@@ -1243,6 +1320,9 @@
       <c r="H16" s="34" t="inlineStr"/>
       <c r="I16" s="30" t="inlineStr"/>
       <c r="J16" s="34" t="inlineStr"/>
+      <c r="K16" s="30" t="inlineStr"/>
+      <c r="L16" s="34" t="inlineStr"/>
+      <c r="M16" s="30" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="21" t="n">
@@ -1269,6 +1349,9 @@
       <c r="H17" s="34" t="inlineStr"/>
       <c r="I17" s="30" t="inlineStr"/>
       <c r="J17" s="34" t="inlineStr"/>
+      <c r="K17" s="30" t="inlineStr"/>
+      <c r="L17" s="34" t="inlineStr"/>
+      <c r="M17" s="30" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="21" t="n">
@@ -1299,6 +1382,9 @@
       </c>
       <c r="I18" s="30" t="inlineStr"/>
       <c r="J18" s="34" t="inlineStr"/>
+      <c r="K18" s="30" t="inlineStr"/>
+      <c r="L18" s="34" t="inlineStr"/>
+      <c r="M18" s="30" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="21" t="n">
@@ -1329,6 +1415,9 @@
       <c r="H19" s="34" t="inlineStr"/>
       <c r="I19" s="30" t="inlineStr"/>
       <c r="J19" s="34" t="inlineStr"/>
+      <c r="K19" s="30" t="inlineStr"/>
+      <c r="L19" s="34" t="inlineStr"/>
+      <c r="M19" s="30" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="21" t="n">
@@ -1363,6 +1452,9 @@
       <c r="H20" s="34" t="inlineStr"/>
       <c r="I20" s="30" t="inlineStr"/>
       <c r="J20" s="34" t="inlineStr"/>
+      <c r="K20" s="30" t="inlineStr"/>
+      <c r="L20" s="34" t="inlineStr"/>
+      <c r="M20" s="30" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="21" t="n">
@@ -1385,6 +1477,9 @@
       <c r="H21" s="34" t="inlineStr"/>
       <c r="I21" s="30" t="inlineStr"/>
       <c r="J21" s="34" t="inlineStr"/>
+      <c r="K21" s="30" t="inlineStr"/>
+      <c r="L21" s="34" t="inlineStr"/>
+      <c r="M21" s="30" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="21" t="n">
@@ -1419,6 +1514,9 @@
       <c r="H22" s="34" t="inlineStr"/>
       <c r="I22" s="30" t="inlineStr"/>
       <c r="J22" s="34" t="inlineStr"/>
+      <c r="K22" s="30" t="inlineStr"/>
+      <c r="L22" s="34" t="inlineStr"/>
+      <c r="M22" s="30" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="21" t="n">
@@ -1437,6 +1535,9 @@
       <c r="H23" s="34" t="inlineStr"/>
       <c r="I23" s="30" t="inlineStr"/>
       <c r="J23" s="34" t="inlineStr"/>
+      <c r="K23" s="30" t="inlineStr"/>
+      <c r="L23" s="34" t="inlineStr"/>
+      <c r="M23" s="30" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="21" t="n">
@@ -1455,6 +1556,9 @@
       <c r="H24" s="34" t="inlineStr"/>
       <c r="I24" s="30" t="inlineStr"/>
       <c r="J24" s="34" t="inlineStr"/>
+      <c r="K24" s="30" t="inlineStr"/>
+      <c r="L24" s="34" t="inlineStr"/>
+      <c r="M24" s="30" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="21" t="n">
@@ -1493,6 +1597,9 @@
       </c>
       <c r="I25" s="30" t="inlineStr"/>
       <c r="J25" s="34" t="inlineStr"/>
+      <c r="K25" s="30" t="inlineStr"/>
+      <c r="L25" s="34" t="inlineStr"/>
+      <c r="M25" s="30" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="21" t="n">
@@ -1543,6 +1650,13 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="K26" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L26" s="34" t="inlineStr"/>
+      <c r="M26" s="30" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="21" t="n">
@@ -1581,6 +1695,9 @@
       <c r="H27" s="34" t="inlineStr"/>
       <c r="I27" s="30" t="inlineStr"/>
       <c r="J27" s="34" t="inlineStr"/>
+      <c r="K27" s="30" t="inlineStr"/>
+      <c r="L27" s="34" t="inlineStr"/>
+      <c r="M27" s="30" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="21" t="n">
@@ -1612,9 +1729,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H28" s="34" t="inlineStr"/>
+      <c r="H28" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I28" s="30" t="inlineStr"/>
       <c r="J28" s="34" t="inlineStr"/>
+      <c r="K28" s="30" t="inlineStr"/>
+      <c r="L28" s="34" t="inlineStr"/>
+      <c r="M28" s="30" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="21" t="n">
@@ -1649,6 +1773,9 @@
       <c r="H29" s="34" t="inlineStr"/>
       <c r="I29" s="30" t="inlineStr"/>
       <c r="J29" s="34" t="inlineStr"/>
+      <c r="K29" s="30" t="inlineStr"/>
+      <c r="L29" s="34" t="inlineStr"/>
+      <c r="M29" s="30" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="21" t="n">
@@ -1671,6 +1798,9 @@
       <c r="H30" s="34" t="inlineStr"/>
       <c r="I30" s="30" t="inlineStr"/>
       <c r="J30" s="34" t="inlineStr"/>
+      <c r="K30" s="30" t="inlineStr"/>
+      <c r="L30" s="34" t="inlineStr"/>
+      <c r="M30" s="30" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="21" t="n">
@@ -1693,6 +1823,9 @@
       <c r="H31" s="34" t="inlineStr"/>
       <c r="I31" s="30" t="inlineStr"/>
       <c r="J31" s="34" t="inlineStr"/>
+      <c r="K31" s="30" t="inlineStr"/>
+      <c r="L31" s="34" t="inlineStr"/>
+      <c r="M31" s="30" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="21" t="n">
@@ -1743,6 +1876,13 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="K32" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L32" s="34" t="inlineStr"/>
+      <c r="M32" s="30" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="21" t="n">
@@ -1765,6 +1905,9 @@
       <c r="H33" s="34" t="inlineStr"/>
       <c r="I33" s="30" t="inlineStr"/>
       <c r="J33" s="34" t="inlineStr"/>
+      <c r="K33" s="30" t="inlineStr"/>
+      <c r="L33" s="34" t="inlineStr"/>
+      <c r="M33" s="30" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="21" t="n">
@@ -1807,6 +1950,9 @@
       </c>
       <c r="I34" s="30" t="inlineStr"/>
       <c r="J34" s="34" t="inlineStr"/>
+      <c r="K34" s="30" t="inlineStr"/>
+      <c r="L34" s="34" t="inlineStr"/>
+      <c r="M34" s="30" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="21" t="n">
@@ -1841,6 +1987,9 @@
       <c r="H35" s="34" t="inlineStr"/>
       <c r="I35" s="30" t="inlineStr"/>
       <c r="J35" s="34" t="inlineStr"/>
+      <c r="K35" s="30" t="inlineStr"/>
+      <c r="L35" s="34" t="inlineStr"/>
+      <c r="M35" s="30" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="21" t="n">
@@ -1876,9 +2025,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H36" s="34" t="inlineStr"/>
+      <c r="H36" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I36" s="30" t="inlineStr"/>
       <c r="J36" s="34" t="inlineStr"/>
+      <c r="K36" s="30" t="inlineStr"/>
+      <c r="L36" s="34" t="inlineStr"/>
+      <c r="M36" s="30" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="21" t="n">
@@ -1917,6 +2073,9 @@
       <c r="H37" s="34" t="inlineStr"/>
       <c r="I37" s="30" t="inlineStr"/>
       <c r="J37" s="34" t="inlineStr"/>
+      <c r="K37" s="30" t="inlineStr"/>
+      <c r="L37" s="34" t="inlineStr"/>
+      <c r="M37" s="30" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="21" t="n">
@@ -1939,13 +2098,16 @@
       <c r="H38" s="34" t="inlineStr"/>
       <c r="I38" s="30" t="inlineStr"/>
       <c r="J38" s="34" t="inlineStr"/>
+      <c r="K38" s="30" t="inlineStr"/>
+      <c r="L38" s="34" t="inlineStr"/>
+      <c r="M38" s="30" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -978,7 +978,11 @@
       </c>
       <c r="I6" s="30" t="inlineStr"/>
       <c r="J6" s="34" t="inlineStr"/>
-      <c r="K6" s="30" t="inlineStr"/>
+      <c r="K6" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L6" s="34" t="inlineStr"/>
       <c r="M6" s="30" t="inlineStr"/>
     </row>
@@ -1190,7 +1194,11 @@
       </c>
       <c r="K12" s="30" t="inlineStr"/>
       <c r="L12" s="34" t="inlineStr"/>
-      <c r="M12" s="30" t="inlineStr"/>
+      <c r="M12" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="21" t="n">
@@ -1415,7 +1423,11 @@
       <c r="H19" s="34" t="inlineStr"/>
       <c r="I19" s="30" t="inlineStr"/>
       <c r="J19" s="34" t="inlineStr"/>
-      <c r="K19" s="30" t="inlineStr"/>
+      <c r="K19" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L19" s="34" t="inlineStr"/>
       <c r="M19" s="30" t="inlineStr"/>
     </row>
@@ -1531,7 +1543,11 @@
       <c r="D23" s="33" t="inlineStr"/>
       <c r="E23" s="29" t="inlineStr"/>
       <c r="F23" s="33" t="inlineStr"/>
-      <c r="G23" s="29" t="inlineStr"/>
+      <c r="G23" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H23" s="34" t="inlineStr"/>
       <c r="I23" s="30" t="inlineStr"/>
       <c r="J23" s="34" t="inlineStr"/>
@@ -1656,7 +1672,11 @@
         </is>
       </c>
       <c r="L26" s="34" t="inlineStr"/>
-      <c r="M26" s="30" t="inlineStr"/>
+      <c r="M26" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="21" t="n">
@@ -1764,7 +1784,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F29" s="33" t="inlineStr"/>
+      <c r="F29" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G29" s="29" t="inlineStr">
         <is>
           <t>NON-MUS</t>
@@ -1773,7 +1797,11 @@
       <c r="H29" s="34" t="inlineStr"/>
       <c r="I29" s="30" t="inlineStr"/>
       <c r="J29" s="34" t="inlineStr"/>
-      <c r="K29" s="30" t="inlineStr"/>
+      <c r="K29" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L29" s="34" t="inlineStr"/>
       <c r="M29" s="30" t="inlineStr"/>
     </row>
@@ -2030,8 +2058,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I36" s="30" t="inlineStr"/>
-      <c r="J36" s="34" t="inlineStr"/>
+      <c r="I36" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J36" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K36" s="30" t="inlineStr"/>
       <c r="L36" s="34" t="inlineStr"/>
       <c r="M36" s="30" t="inlineStr"/>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -1292,10 +1292,18 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="H15" s="34" t="inlineStr"/>
+      <c r="H15" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I15" s="30" t="inlineStr"/>
       <c r="J15" s="34" t="inlineStr"/>
-      <c r="K15" s="30" t="inlineStr"/>
+      <c r="K15" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L15" s="34" t="inlineStr"/>
       <c r="M15" s="30" t="inlineStr"/>
     </row>
@@ -1455,7 +1463,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F20" s="33" t="inlineStr"/>
+      <c r="F20" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G20" s="31" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1712,12 +1724,32 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="H27" s="34" t="inlineStr"/>
-      <c r="I27" s="30" t="inlineStr"/>
-      <c r="J27" s="34" t="inlineStr"/>
-      <c r="K27" s="30" t="inlineStr"/>
+      <c r="H27" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I27" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J27" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K27" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L27" s="34" t="inlineStr"/>
-      <c r="M27" s="30" t="inlineStr"/>
+      <c r="M27" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="21" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -897,10 +897,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H4" s="34" t="inlineStr"/>
+      <c r="H4" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I4" s="30" t="inlineStr"/>
       <c r="J4" s="34" t="inlineStr"/>
-      <c r="K4" s="30" t="inlineStr"/>
+      <c r="K4" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L4" s="34" t="inlineStr"/>
       <c r="M4" s="30" t="inlineStr"/>
     </row>
@@ -1046,8 +1054,16 @@
         </is>
       </c>
       <c r="H8" s="34" t="inlineStr"/>
-      <c r="I8" s="30" t="inlineStr"/>
-      <c r="J8" s="34" t="inlineStr"/>
+      <c r="I8" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J8" s="35" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K8" s="36" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1118,7 +1134,11 @@
       </c>
       <c r="I10" s="30" t="inlineStr"/>
       <c r="J10" s="34" t="inlineStr"/>
-      <c r="K10" s="30" t="inlineStr"/>
+      <c r="K10" s="36" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L10" s="34" t="inlineStr"/>
       <c r="M10" s="30" t="inlineStr"/>
     </row>
@@ -1612,7 +1632,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F25" s="33" t="inlineStr"/>
+      <c r="F25" s="32" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G25" s="31" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -1379,8 +1379,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N12" s="46" t="inlineStr"/>
-      <c r="O12" s="39" t="inlineStr"/>
+      <c r="N12" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O12" s="48" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="27" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -1061,8 +1061,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I5" s="38" t="inlineStr"/>
-      <c r="J5" s="44" t="inlineStr"/>
+      <c r="I5" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J5" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K5" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1070,8 +1078,16 @@
       </c>
       <c r="L5" s="44" t="inlineStr"/>
       <c r="M5" s="38" t="inlineStr"/>
-      <c r="N5" s="46" t="inlineStr"/>
-      <c r="O5" s="39" t="inlineStr"/>
+      <c r="N5" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O5" s="48" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="27" t="n">
@@ -1297,8 +1313,16 @@
       </c>
       <c r="L10" s="44" t="inlineStr"/>
       <c r="M10" s="38" t="inlineStr"/>
-      <c r="N10" s="46" t="inlineStr"/>
-      <c r="O10" s="39" t="inlineStr"/>
+      <c r="N10" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O10" s="48" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="27" t="n">
@@ -2044,7 +2068,11 @@
       </c>
       <c r="I28" s="38" t="inlineStr"/>
       <c r="J28" s="44" t="inlineStr"/>
-      <c r="K28" s="38" t="inlineStr"/>
+      <c r="K28" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L28" s="44" t="inlineStr"/>
       <c r="M28" s="38" t="inlineStr"/>
       <c r="N28" s="46" t="inlineStr"/>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -1145,8 +1145,16 @@
       </c>
       <c r="L6" s="44" t="inlineStr"/>
       <c r="M6" s="38" t="inlineStr"/>
-      <c r="N6" s="46" t="inlineStr"/>
-      <c r="O6" s="39" t="inlineStr"/>
+      <c r="N6" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O6" s="48" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="27" t="n">
@@ -1959,14 +1967,26 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L26" s="44" t="inlineStr"/>
+      <c r="L26" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M26" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="N26" s="46" t="inlineStr"/>
-      <c r="O26" s="39" t="inlineStr"/>
+      <c r="N26" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O26" s="48" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="27" t="n">
@@ -2055,7 +2075,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F28" s="42" t="inlineStr"/>
+      <c r="F28" s="41" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G28" s="40" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2233,14 +2257,26 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L32" s="44" t="inlineStr"/>
+      <c r="L32" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M32" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="N32" s="46" t="inlineStr"/>
-      <c r="O32" s="39" t="inlineStr"/>
+      <c r="N32" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O32" s="48" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="27" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -71,17 +71,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFC8DD0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEB972A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF62E359"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC8DD0"/>
       </patternFill>
     </fill>
     <fill>
@@ -120,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -247,39 +247,11 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -293,43 +265,43 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -343,7 +315,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -392,29 +364,27 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,10 +728,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O7" sqref="A1:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -774,6 +744,7 @@
     <col width="9.44140625" bestFit="1" customWidth="1" min="9" max="10"/>
     <col width="9.109375" bestFit="1" customWidth="1" min="11" max="13"/>
     <col width="9.44140625" bestFit="1" customWidth="1" min="14" max="15"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -812,6 +783,7 @@
         </is>
       </c>
       <c r="O1" s="31" t="n"/>
+      <c r="P1" s="31" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="32" t="n"/>
@@ -881,6 +853,11 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="P2" s="35" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="36" t="n"/>
@@ -950,6 +927,11 @@
           <t>BINDO13</t>
         </is>
       </c>
+      <c r="P3" s="39" t="inlineStr">
+        <is>
+          <t>BING9</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="27" t="n">
@@ -985,42 +967,43 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H4" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I4" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J4" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="K4" s="45" t="inlineStr">
+      <c r="H4" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I4" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J4" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K4" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L4" s="44" t="inlineStr"/>
-      <c r="M4" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="N4" s="47" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="O4" s="48" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="M4" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N4" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O4" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P4" s="47" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="27" t="n">
@@ -1056,38 +1039,39 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H5" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I5" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J5" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="K5" s="45" t="inlineStr">
+      <c r="H5" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I5" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J5" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K5" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L5" s="44" t="inlineStr"/>
       <c r="M5" s="38" t="inlineStr"/>
-      <c r="N5" s="47" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="O5" s="48" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="N5" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O5" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P5" s="47" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="27" t="n">
@@ -1123,38 +1107,39 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H6" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I6" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J6" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="K6" s="45" t="inlineStr">
+      <c r="H6" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I6" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J6" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K6" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L6" s="44" t="inlineStr"/>
       <c r="M6" s="38" t="inlineStr"/>
-      <c r="N6" s="47" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="O6" s="48" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="N6" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O6" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P6" s="47" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="27" t="n">
@@ -1166,9 +1151,9 @@
         </is>
       </c>
       <c r="C7" s="37" t="inlineStr"/>
-      <c r="D7" s="42" t="inlineStr"/>
+      <c r="D7" s="48" t="inlineStr"/>
       <c r="E7" s="37" t="inlineStr"/>
-      <c r="F7" s="42" t="inlineStr"/>
+      <c r="F7" s="48" t="inlineStr"/>
       <c r="G7" s="40" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1180,8 +1165,9 @@
       <c r="K7" s="38" t="inlineStr"/>
       <c r="L7" s="44" t="inlineStr"/>
       <c r="M7" s="38" t="inlineStr"/>
-      <c r="N7" s="46" t="inlineStr"/>
+      <c r="N7" s="47" t="inlineStr"/>
       <c r="O7" s="39" t="inlineStr"/>
+      <c r="P7" s="47" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="27" t="n">
@@ -1217,30 +1203,31 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H8" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I8" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J8" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="K8" s="45" t="inlineStr">
+      <c r="H8" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I8" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J8" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K8" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L8" s="44" t="inlineStr"/>
       <c r="M8" s="38" t="inlineStr"/>
-      <c r="N8" s="46" t="inlineStr"/>
+      <c r="N8" s="47" t="inlineStr"/>
       <c r="O8" s="39" t="inlineStr"/>
+      <c r="P8" s="47" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="27" t="n">
@@ -1252,9 +1239,9 @@
         </is>
       </c>
       <c r="C9" s="37" t="inlineStr"/>
-      <c r="D9" s="42" t="inlineStr"/>
+      <c r="D9" s="48" t="inlineStr"/>
       <c r="E9" s="37" t="inlineStr"/>
-      <c r="F9" s="42" t="inlineStr"/>
+      <c r="F9" s="48" t="inlineStr"/>
       <c r="G9" s="37" t="inlineStr"/>
       <c r="H9" s="44" t="inlineStr"/>
       <c r="I9" s="38" t="inlineStr"/>
@@ -1262,8 +1249,9 @@
       <c r="K9" s="38" t="inlineStr"/>
       <c r="L9" s="44" t="inlineStr"/>
       <c r="M9" s="38" t="inlineStr"/>
-      <c r="N9" s="46" t="inlineStr"/>
+      <c r="N9" s="47" t="inlineStr"/>
       <c r="O9" s="39" t="inlineStr"/>
+      <c r="P9" s="47" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="27" t="n">
@@ -1299,38 +1287,39 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H10" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I10" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J10" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="K10" s="45" t="inlineStr">
+      <c r="H10" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I10" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J10" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K10" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L10" s="44" t="inlineStr"/>
       <c r="M10" s="38" t="inlineStr"/>
-      <c r="N10" s="47" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="O10" s="48" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="N10" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O10" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P10" s="47" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="27" t="n">
@@ -1342,9 +1331,9 @@
         </is>
       </c>
       <c r="C11" s="37" t="inlineStr"/>
-      <c r="D11" s="42" t="inlineStr"/>
+      <c r="D11" s="48" t="inlineStr"/>
       <c r="E11" s="37" t="inlineStr"/>
-      <c r="F11" s="42" t="inlineStr"/>
+      <c r="F11" s="48" t="inlineStr"/>
       <c r="G11" s="37" t="inlineStr"/>
       <c r="H11" s="44" t="inlineStr"/>
       <c r="I11" s="38" t="inlineStr"/>
@@ -1352,8 +1341,9 @@
       <c r="K11" s="38" t="inlineStr"/>
       <c r="L11" s="44" t="inlineStr"/>
       <c r="M11" s="38" t="inlineStr"/>
-      <c r="N11" s="46" t="inlineStr"/>
+      <c r="N11" s="47" t="inlineStr"/>
       <c r="O11" s="39" t="inlineStr"/>
+      <c r="P11" s="47" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="27" t="n">
@@ -1389,38 +1379,43 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H12" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I12" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J12" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="K12" s="38" t="inlineStr"/>
+      <c r="H12" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I12" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J12" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K12" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L12" s="44" t="inlineStr"/>
-      <c r="M12" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="N12" s="47" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="O12" s="48" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="M12" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N12" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O12" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P12" s="47" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="27" t="n">
@@ -1432,9 +1427,9 @@
         </is>
       </c>
       <c r="C13" s="37" t="inlineStr"/>
-      <c r="D13" s="42" t="inlineStr"/>
+      <c r="D13" s="48" t="inlineStr"/>
       <c r="E13" s="37" t="inlineStr"/>
-      <c r="F13" s="42" t="inlineStr"/>
+      <c r="F13" s="48" t="inlineStr"/>
       <c r="G13" s="37" t="inlineStr"/>
       <c r="H13" s="44" t="inlineStr"/>
       <c r="I13" s="38" t="inlineStr"/>
@@ -1442,8 +1437,9 @@
       <c r="K13" s="38" t="inlineStr"/>
       <c r="L13" s="44" t="inlineStr"/>
       <c r="M13" s="38" t="inlineStr"/>
-      <c r="N13" s="46" t="inlineStr"/>
+      <c r="N13" s="47" t="inlineStr"/>
       <c r="O13" s="39" t="inlineStr"/>
+      <c r="P13" s="47" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="27" t="n">
@@ -1479,7 +1475,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H14" s="43" t="inlineStr">
+      <c r="H14" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1489,8 +1485,9 @@
       <c r="K14" s="38" t="inlineStr"/>
       <c r="L14" s="44" t="inlineStr"/>
       <c r="M14" s="38" t="inlineStr"/>
-      <c r="N14" s="46" t="inlineStr"/>
+      <c r="N14" s="47" t="inlineStr"/>
       <c r="O14" s="39" t="inlineStr"/>
+      <c r="P14" s="47" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="27" t="n">
@@ -1526,22 +1523,23 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="H15" s="43" t="inlineStr">
+      <c r="H15" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="I15" s="38" t="inlineStr"/>
       <c r="J15" s="44" t="inlineStr"/>
-      <c r="K15" s="45" t="inlineStr">
+      <c r="K15" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L15" s="44" t="inlineStr"/>
       <c r="M15" s="38" t="inlineStr"/>
-      <c r="N15" s="46" t="inlineStr"/>
+      <c r="N15" s="47" t="inlineStr"/>
       <c r="O15" s="39" t="inlineStr"/>
+      <c r="P15" s="47" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="27" t="n">
@@ -1563,7 +1561,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F16" s="42" t="inlineStr"/>
+      <c r="F16" s="48" t="inlineStr"/>
       <c r="G16" s="40" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1575,8 +1573,9 @@
       <c r="K16" s="38" t="inlineStr"/>
       <c r="L16" s="44" t="inlineStr"/>
       <c r="M16" s="38" t="inlineStr"/>
-      <c r="N16" s="46" t="inlineStr"/>
+      <c r="N16" s="47" t="inlineStr"/>
       <c r="O16" s="39" t="inlineStr"/>
+      <c r="P16" s="47" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="27" t="n">
@@ -1598,7 +1597,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F17" s="42" t="inlineStr"/>
+      <c r="F17" s="48" t="inlineStr"/>
       <c r="G17" s="37" t="inlineStr"/>
       <c r="H17" s="44" t="inlineStr"/>
       <c r="I17" s="38" t="inlineStr"/>
@@ -1606,8 +1605,9 @@
       <c r="K17" s="38" t="inlineStr"/>
       <c r="L17" s="44" t="inlineStr"/>
       <c r="M17" s="38" t="inlineStr"/>
-      <c r="N17" s="46" t="inlineStr"/>
+      <c r="N17" s="47" t="inlineStr"/>
       <c r="O17" s="39" t="inlineStr"/>
+      <c r="P17" s="47" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="27" t="n">
@@ -1623,15 +1623,15 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D18" s="42" t="inlineStr"/>
+      <c r="D18" s="48" t="inlineStr"/>
       <c r="E18" s="37" t="inlineStr"/>
-      <c r="F18" s="42" t="inlineStr"/>
+      <c r="F18" s="48" t="inlineStr"/>
       <c r="G18" s="40" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="H18" s="43" t="inlineStr">
+      <c r="H18" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1641,8 +1641,9 @@
       <c r="K18" s="38" t="inlineStr"/>
       <c r="L18" s="44" t="inlineStr"/>
       <c r="M18" s="38" t="inlineStr"/>
-      <c r="N18" s="46" t="inlineStr"/>
+      <c r="N18" s="47" t="inlineStr"/>
       <c r="O18" s="39" t="inlineStr"/>
+      <c r="P18" s="47" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="27" t="n">
@@ -1664,40 +1665,41 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F19" s="42" t="inlineStr"/>
+      <c r="F19" s="48" t="inlineStr"/>
       <c r="G19" s="40" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="H19" s="44" t="inlineStr"/>
-      <c r="I19" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J19" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="K19" s="45" t="inlineStr">
+      <c r="I19" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J19" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K19" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L19" s="44" t="inlineStr"/>
       <c r="M19" s="38" t="inlineStr"/>
-      <c r="N19" s="47" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="O19" s="48" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="N19" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O19" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P19" s="47" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="27" t="n">
@@ -1733,7 +1735,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H20" s="43" t="inlineStr">
+      <c r="H20" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1743,8 +1745,9 @@
       <c r="K20" s="38" t="inlineStr"/>
       <c r="L20" s="44" t="inlineStr"/>
       <c r="M20" s="38" t="inlineStr"/>
-      <c r="N20" s="46" t="inlineStr"/>
+      <c r="N20" s="47" t="inlineStr"/>
       <c r="O20" s="39" t="inlineStr"/>
+      <c r="P20" s="47" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="27" t="n">
@@ -1756,9 +1759,9 @@
         </is>
       </c>
       <c r="C21" s="37" t="inlineStr"/>
-      <c r="D21" s="42" t="inlineStr"/>
+      <c r="D21" s="48" t="inlineStr"/>
       <c r="E21" s="37" t="inlineStr"/>
-      <c r="F21" s="42" t="inlineStr"/>
+      <c r="F21" s="48" t="inlineStr"/>
       <c r="G21" s="40" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1770,8 +1773,9 @@
       <c r="K21" s="38" t="inlineStr"/>
       <c r="L21" s="44" t="inlineStr"/>
       <c r="M21" s="38" t="inlineStr"/>
-      <c r="N21" s="46" t="inlineStr"/>
+      <c r="N21" s="47" t="inlineStr"/>
       <c r="O21" s="39" t="inlineStr"/>
+      <c r="P21" s="47" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="27" t="n">
@@ -1813,8 +1817,9 @@
       <c r="K22" s="38" t="inlineStr"/>
       <c r="L22" s="44" t="inlineStr"/>
       <c r="M22" s="38" t="inlineStr"/>
-      <c r="N22" s="46" t="inlineStr"/>
+      <c r="N22" s="47" t="inlineStr"/>
       <c r="O22" s="39" t="inlineStr"/>
+      <c r="P22" s="47" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="27" t="n">
@@ -1826,9 +1831,9 @@
         </is>
       </c>
       <c r="C23" s="37" t="inlineStr"/>
-      <c r="D23" s="42" t="inlineStr"/>
+      <c r="D23" s="48" t="inlineStr"/>
       <c r="E23" s="37" t="inlineStr"/>
-      <c r="F23" s="42" t="inlineStr"/>
+      <c r="F23" s="48" t="inlineStr"/>
       <c r="G23" s="40" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1840,8 +1845,9 @@
       <c r="K23" s="38" t="inlineStr"/>
       <c r="L23" s="44" t="inlineStr"/>
       <c r="M23" s="38" t="inlineStr"/>
-      <c r="N23" s="46" t="inlineStr"/>
+      <c r="N23" s="47" t="inlineStr"/>
       <c r="O23" s="39" t="inlineStr"/>
+      <c r="P23" s="47" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="27" t="n">
@@ -1853,9 +1859,9 @@
         </is>
       </c>
       <c r="C24" s="37" t="inlineStr"/>
-      <c r="D24" s="42" t="inlineStr"/>
+      <c r="D24" s="48" t="inlineStr"/>
       <c r="E24" s="37" t="inlineStr"/>
-      <c r="F24" s="42" t="inlineStr"/>
+      <c r="F24" s="48" t="inlineStr"/>
       <c r="G24" s="37" t="inlineStr"/>
       <c r="H24" s="44" t="inlineStr"/>
       <c r="I24" s="38" t="inlineStr"/>
@@ -1863,8 +1869,9 @@
       <c r="K24" s="38" t="inlineStr"/>
       <c r="L24" s="44" t="inlineStr"/>
       <c r="M24" s="38" t="inlineStr"/>
-      <c r="N24" s="46" t="inlineStr"/>
+      <c r="N24" s="47" t="inlineStr"/>
       <c r="O24" s="39" t="inlineStr"/>
+      <c r="P24" s="47" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="27" t="n">
@@ -1900,7 +1907,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H25" s="43" t="inlineStr">
+      <c r="H25" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1910,8 +1917,9 @@
       <c r="K25" s="38" t="inlineStr"/>
       <c r="L25" s="44" t="inlineStr"/>
       <c r="M25" s="38" t="inlineStr"/>
-      <c r="N25" s="46" t="inlineStr"/>
+      <c r="N25" s="47" t="inlineStr"/>
       <c r="O25" s="39" t="inlineStr"/>
+      <c r="P25" s="47" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="27" t="n">
@@ -1947,46 +1955,47 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H26" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I26" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J26" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="K26" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="L26" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="M26" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="N26" s="47" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="O26" s="48" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="H26" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I26" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J26" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K26" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L26" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M26" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N26" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O26" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P26" s="47" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="27" t="n">
@@ -2022,34 +2031,35 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="H27" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I27" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J27" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="K27" s="45" t="inlineStr">
+      <c r="H27" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I27" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J27" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K27" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L27" s="44" t="inlineStr"/>
-      <c r="M27" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="N27" s="46" t="inlineStr"/>
+      <c r="M27" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N27" s="47" t="inlineStr"/>
       <c r="O27" s="39" t="inlineStr"/>
+      <c r="P27" s="47" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="27" t="n">
@@ -2085,22 +2095,23 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H28" s="43" t="inlineStr">
+      <c r="H28" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="I28" s="38" t="inlineStr"/>
       <c r="J28" s="44" t="inlineStr"/>
-      <c r="K28" s="45" t="inlineStr">
+      <c r="K28" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L28" s="44" t="inlineStr"/>
       <c r="M28" s="38" t="inlineStr"/>
-      <c r="N28" s="46" t="inlineStr"/>
+      <c r="N28" s="47" t="inlineStr"/>
       <c r="O28" s="39" t="inlineStr"/>
+      <c r="P28" s="47" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="27" t="n">
@@ -2139,15 +2150,16 @@
       <c r="H29" s="44" t="inlineStr"/>
       <c r="I29" s="38" t="inlineStr"/>
       <c r="J29" s="44" t="inlineStr"/>
-      <c r="K29" s="45" t="inlineStr">
+      <c r="K29" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L29" s="44" t="inlineStr"/>
       <c r="M29" s="38" t="inlineStr"/>
-      <c r="N29" s="46" t="inlineStr"/>
+      <c r="N29" s="47" t="inlineStr"/>
       <c r="O29" s="39" t="inlineStr"/>
+      <c r="P29" s="47" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="27" t="n">
@@ -2159,9 +2171,9 @@
         </is>
       </c>
       <c r="C30" s="37" t="inlineStr"/>
-      <c r="D30" s="42" t="inlineStr"/>
+      <c r="D30" s="48" t="inlineStr"/>
       <c r="E30" s="37" t="inlineStr"/>
-      <c r="F30" s="42" t="inlineStr"/>
+      <c r="F30" s="48" t="inlineStr"/>
       <c r="G30" s="40" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2173,8 +2185,9 @@
       <c r="K30" s="38" t="inlineStr"/>
       <c r="L30" s="44" t="inlineStr"/>
       <c r="M30" s="38" t="inlineStr"/>
-      <c r="N30" s="46" t="inlineStr"/>
+      <c r="N30" s="47" t="inlineStr"/>
       <c r="O30" s="39" t="inlineStr"/>
+      <c r="P30" s="47" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="27" t="n">
@@ -2186,9 +2199,9 @@
         </is>
       </c>
       <c r="C31" s="37" t="inlineStr"/>
-      <c r="D31" s="42" t="inlineStr"/>
+      <c r="D31" s="48" t="inlineStr"/>
       <c r="E31" s="37" t="inlineStr"/>
-      <c r="F31" s="42" t="inlineStr"/>
+      <c r="F31" s="48" t="inlineStr"/>
       <c r="G31" s="40" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2200,8 +2213,9 @@
       <c r="K31" s="38" t="inlineStr"/>
       <c r="L31" s="44" t="inlineStr"/>
       <c r="M31" s="38" t="inlineStr"/>
-      <c r="N31" s="46" t="inlineStr"/>
+      <c r="N31" s="47" t="inlineStr"/>
       <c r="O31" s="39" t="inlineStr"/>
+      <c r="P31" s="47" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="27" t="n">
@@ -2237,42 +2251,47 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H32" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I32" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J32" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="K32" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="L32" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="M32" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="N32" s="47" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="O32" s="48" t="inlineStr">
+      <c r="H32" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I32" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J32" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K32" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L32" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M32" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N32" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O32" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P32" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2288,9 +2307,9 @@
         </is>
       </c>
       <c r="C33" s="37" t="inlineStr"/>
-      <c r="D33" s="42" t="inlineStr"/>
+      <c r="D33" s="48" t="inlineStr"/>
       <c r="E33" s="37" t="inlineStr"/>
-      <c r="F33" s="42" t="inlineStr"/>
+      <c r="F33" s="48" t="inlineStr"/>
       <c r="G33" s="40" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2302,8 +2321,9 @@
       <c r="K33" s="38" t="inlineStr"/>
       <c r="L33" s="44" t="inlineStr"/>
       <c r="M33" s="38" t="inlineStr"/>
-      <c r="N33" s="46" t="inlineStr"/>
+      <c r="N33" s="47" t="inlineStr"/>
       <c r="O33" s="39" t="inlineStr"/>
+      <c r="P33" s="47" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="27" t="n">
@@ -2339,30 +2359,31 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H34" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I34" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J34" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="K34" s="45" t="inlineStr">
+      <c r="H34" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I34" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J34" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K34" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L34" s="44" t="inlineStr"/>
       <c r="M34" s="38" t="inlineStr"/>
-      <c r="N34" s="46" t="inlineStr"/>
+      <c r="N34" s="47" t="inlineStr"/>
       <c r="O34" s="39" t="inlineStr"/>
+      <c r="P34" s="47" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="27" t="n">
@@ -2388,7 +2409,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F35" s="42" t="inlineStr"/>
+      <c r="F35" s="48" t="inlineStr"/>
       <c r="G35" s="40" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2400,8 +2421,9 @@
       <c r="K35" s="38" t="inlineStr"/>
       <c r="L35" s="44" t="inlineStr"/>
       <c r="M35" s="38" t="inlineStr"/>
-      <c r="N35" s="46" t="inlineStr"/>
+      <c r="N35" s="47" t="inlineStr"/>
       <c r="O35" s="39" t="inlineStr"/>
+      <c r="P35" s="47" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="27" t="n">
@@ -2437,17 +2459,17 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H36" s="43" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I36" s="45" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="J36" s="43" t="inlineStr">
+      <c r="H36" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I36" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J36" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2455,16 +2477,17 @@
       <c r="K36" s="38" t="inlineStr"/>
       <c r="L36" s="44" t="inlineStr"/>
       <c r="M36" s="38" t="inlineStr"/>
-      <c r="N36" s="47" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="O36" s="48" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="N36" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O36" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P36" s="47" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="27" t="n">
@@ -2506,8 +2529,9 @@
       <c r="K37" s="38" t="inlineStr"/>
       <c r="L37" s="44" t="inlineStr"/>
       <c r="M37" s="38" t="inlineStr"/>
-      <c r="N37" s="46" t="inlineStr"/>
+      <c r="N37" s="47" t="inlineStr"/>
       <c r="O37" s="39" t="inlineStr"/>
+      <c r="P37" s="47" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="27" t="n">
@@ -2519,9 +2543,9 @@
         </is>
       </c>
       <c r="C38" s="37" t="inlineStr"/>
-      <c r="D38" s="42" t="inlineStr"/>
+      <c r="D38" s="48" t="inlineStr"/>
       <c r="E38" s="37" t="inlineStr"/>
-      <c r="F38" s="42" t="inlineStr"/>
+      <c r="F38" s="48" t="inlineStr"/>
       <c r="G38" s="37" t="inlineStr">
         <is>
           <t>NON-MUS</t>
@@ -2533,8 +2557,9 @@
       <c r="K38" s="38" t="inlineStr"/>
       <c r="L38" s="44" t="inlineStr"/>
       <c r="M38" s="38" t="inlineStr"/>
-      <c r="N38" s="46" t="inlineStr"/>
+      <c r="N38" s="47" t="inlineStr"/>
       <c r="O38" s="39" t="inlineStr"/>
+      <c r="P38" s="47" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2542,7 +2567,7 @@
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -120,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -247,11 +247,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +413,8 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,7 +1033,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P4" s="47" t="inlineStr"/>
+      <c r="P4" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="27" t="n">
@@ -1139,7 +1173,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P6" s="47" t="inlineStr"/>
+      <c r="P6" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="27" t="n">
@@ -1308,7 +1346,11 @@
         </is>
       </c>
       <c r="L10" s="44" t="inlineStr"/>
-      <c r="M10" s="38" t="inlineStr"/>
+      <c r="M10" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N10" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1319,7 +1361,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P10" s="47" t="inlineStr"/>
+      <c r="P10" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="27" t="n">
@@ -1415,7 +1461,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P12" s="47" t="inlineStr"/>
+      <c r="P12" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="27" t="n">
@@ -1539,7 +1589,11 @@
       <c r="M15" s="38" t="inlineStr"/>
       <c r="N15" s="47" t="inlineStr"/>
       <c r="O15" s="39" t="inlineStr"/>
-      <c r="P15" s="47" t="inlineStr"/>
+      <c r="P15" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="27" t="n">
@@ -1919,7 +1973,11 @@
       <c r="M25" s="38" t="inlineStr"/>
       <c r="N25" s="47" t="inlineStr"/>
       <c r="O25" s="39" t="inlineStr"/>
-      <c r="P25" s="47" t="inlineStr"/>
+      <c r="P25" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="27" t="n">
@@ -1995,7 +2053,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P26" s="47" t="inlineStr"/>
+      <c r="P26" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="27" t="n">
@@ -2415,14 +2477,42 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H35" s="44" t="inlineStr"/>
-      <c r="I35" s="38" t="inlineStr"/>
-      <c r="J35" s="44" t="inlineStr"/>
+      <c r="H35" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I35" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J35" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K35" s="38" t="inlineStr"/>
-      <c r="L35" s="44" t="inlineStr"/>
-      <c r="M35" s="38" t="inlineStr"/>
-      <c r="N35" s="47" t="inlineStr"/>
-      <c r="O35" s="39" t="inlineStr"/>
+      <c r="L35" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M35" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N35" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O35" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="P35" s="47" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -1345,7 +1345,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L10" s="44" t="inlineStr"/>
+      <c r="L10" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M10" s="43" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2173,7 +2177,11 @@
       <c r="M28" s="38" t="inlineStr"/>
       <c r="N28" s="47" t="inlineStr"/>
       <c r="O28" s="39" t="inlineStr"/>
-      <c r="P28" s="47" t="inlineStr"/>
+      <c r="P28" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="27" t="n">
@@ -2492,7 +2500,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K35" s="38" t="inlineStr"/>
+      <c r="K35" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L35" s="42" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -1263,9 +1263,21 @@
       </c>
       <c r="L8" s="44" t="inlineStr"/>
       <c r="M8" s="38" t="inlineStr"/>
-      <c r="N8" s="47" t="inlineStr"/>
-      <c r="O8" s="39" t="inlineStr"/>
-      <c r="P8" s="47" t="inlineStr"/>
+      <c r="N8" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O8" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P8" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="27" t="n">
@@ -2123,9 +2135,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N27" s="47" t="inlineStr"/>
-      <c r="O27" s="39" t="inlineStr"/>
-      <c r="P27" s="47" t="inlineStr"/>
+      <c r="N27" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O27" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P27" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="27" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -1017,7 +1017,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L4" s="44" t="inlineStr"/>
+      <c r="L4" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M4" s="43" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1601,7 +1605,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L15" s="44" t="inlineStr"/>
+      <c r="L15" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M15" s="38" t="inlineStr"/>
       <c r="N15" s="47" t="inlineStr"/>
       <c r="O15" s="39" t="inlineStr"/>
@@ -1810,13 +1818,37 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I20" s="38" t="inlineStr"/>
-      <c r="J20" s="44" t="inlineStr"/>
+      <c r="I20" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J20" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K20" s="38" t="inlineStr"/>
-      <c r="L20" s="44" t="inlineStr"/>
-      <c r="M20" s="38" t="inlineStr"/>
-      <c r="N20" s="47" t="inlineStr"/>
-      <c r="O20" s="39" t="inlineStr"/>
+      <c r="L20" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M20" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N20" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O20" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="P20" s="47" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
@@ -2600,7 +2632,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K36" s="38" t="inlineStr"/>
+      <c r="K36" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L36" s="44" t="inlineStr"/>
       <c r="M36" s="38" t="inlineStr"/>
       <c r="N36" s="45" t="inlineStr">
@@ -2613,7 +2649,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P36" s="47" t="inlineStr"/>
+      <c r="P36" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="27" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-4 (1 November 2021 - 5 December 2021).xlsx
@@ -1165,7 +1165,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L6" s="44" t="inlineStr"/>
+      <c r="L6" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M6" s="38" t="inlineStr"/>
       <c r="N6" s="45" t="inlineStr">
         <is>
@@ -2505,11 +2509,31 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L34" s="44" t="inlineStr"/>
-      <c r="M34" s="38" t="inlineStr"/>
-      <c r="N34" s="47" t="inlineStr"/>
-      <c r="O34" s="39" t="inlineStr"/>
-      <c r="P34" s="47" t="inlineStr"/>
+      <c r="L34" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M34" s="43" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N34" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O34" s="46" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P34" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="27" t="n">
